--- a/fuentes/contenidos/grado07/guion01/SolicitudGrafica_MA_07_01_REC70.xlsx
+++ b/fuentes/contenidos/grado07/guion01/SolicitudGrafica_MA_07_01_REC70.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Matematicas\fuentes\contenidos\grado07\guion01\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="708" yWindow="960" windowWidth="9996" windowHeight="7008" tabRatio="500"/>
+    <workbookView xWindow="705" yWindow="960" windowWidth="9990" windowHeight="7005" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
     <sheet name="Ayuda" sheetId="2" r:id="rId2"/>
     <sheet name="Definición técnica de imagenes" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="152511" iterateCount="2" iterateDelta="10"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +31,7 @@
     <author>LENOVO</author>
   </authors>
   <commentList>
-    <comment ref="G5" authorId="0">
+    <comment ref="G5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="0">
+    <comment ref="C10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -580,32 +585,26 @@
     <t>Interactivo para reforzar y evidenciar el uso de “Los números enteros”.</t>
   </si>
   <si>
-    <t>1 Eso/Matemáticas/Los números enteros/¿Para qué sirven los números enteros?/Las aplicaciones de los números enteros en las matemáticas/El elemento opuesto de un número entero/Lo esencial de los números enteros
-244845553 
+    <t>MA_07_01_REC70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>Número de las imágenes en shutterstock: 244845553 
 229050424
 42422950</t>
-  </si>
-  <si>
-    <t>MT_07_01_REC70</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ver guion MT_07_01_CO Son muchos los cambios y allí se aprecian mejor.
-En la primera diapositiva cambiar la imagen enmarcada con rojo por la que aparece en la parte de abajo y donde dice past y future cambiar por Pasado y Futuro.
-En la primera diapositiva cambiar la imagen enmarcada con rojo por la que aparece en la parte de abajo y donde dice past y future cambiar por Pasado y Futuro.
-Número de la imagen en shutterstock: 244845553 
-En la última diapositiva cambiar las imágenes resaltadas con rojo por la que aparece en la parte de abajo. Adicionalmente, cambiar el texto que se indica en la parte inferior izquierda enmarcada con rojo también.
-Número de las imagen en shutterstock: 229050424 y 42422950
-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1334,7 +1333,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1346,18 +1345,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1456,9 +1449,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1469,9 +1459,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1498,9 +1485,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1533,11 +1517,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1624,8 +1608,38 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -1744,7 +1758,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" sel="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1757,6 +1771,554 @@
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$J$20" fmlaRange="$J$4:$J$19" noThreeD="1" sel="4" val="0"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>418042</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>121708</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>5064125</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>1752533</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2060" name="Object 12" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2060"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>5318125</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>79374</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>9958916</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>1793874</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2061" name="Object 13" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2061"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>2921000</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>1889125</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>7553325</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>4422775</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2062" name="Object 14" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2062"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>962025</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>2028825</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>1419225</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1030" name="Drop Down 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1030"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>2019300</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>962025</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1657350</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>1419225</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1031" name="Drop Down 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1031"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>962025</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>1666875</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>1419225</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1032" name="Drop Down 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1032"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>962025</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>1666875</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>1419225</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1035" name="Drop Down 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1035"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>2066925</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>466725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1026" name="Drop Down 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1026"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>2085975</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1724025</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>466725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1028" name="Drop Down 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1028"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>466725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1029" name="Drop Down 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2080,123 +2642,123 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:P108"/>
+  <dimension ref="A1:S108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.8984375" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.8984375" style="48" customWidth="1"/>
-    <col min="2" max="2" width="37.796875" style="48" customWidth="1"/>
-    <col min="3" max="3" width="21.19921875" style="48" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="48" customWidth="1"/>
-    <col min="5" max="5" width="13.09765625" style="48" customWidth="1"/>
-    <col min="6" max="6" width="28.19921875" style="48" customWidth="1"/>
-    <col min="7" max="7" width="20.3984375" style="48" customWidth="1"/>
-    <col min="8" max="8" width="28.59765625" style="48" customWidth="1"/>
-    <col min="9" max="9" width="20.3984375" style="48" customWidth="1"/>
-    <col min="10" max="10" width="34.8984375" style="48" customWidth="1"/>
-    <col min="11" max="11" width="29.59765625" style="48" customWidth="1"/>
-    <col min="12" max="12" width="20.3984375" style="48" customWidth="1"/>
-    <col min="13" max="13" width="14.5" style="48" customWidth="1"/>
-    <col min="14" max="16384" width="10.8984375" style="48"/>
+    <col min="1" max="1" width="7.875" style="44" customWidth="1"/>
+    <col min="2" max="2" width="37.75" style="44" customWidth="1"/>
+    <col min="3" max="3" width="21.25" style="44" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="44" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="44" customWidth="1"/>
+    <col min="6" max="6" width="28.25" style="44" customWidth="1"/>
+    <col min="7" max="7" width="20.375" style="44" customWidth="1"/>
+    <col min="8" max="8" width="28.625" style="44" customWidth="1"/>
+    <col min="9" max="9" width="20.375" style="44" customWidth="1"/>
+    <col min="10" max="10" width="34.875" style="44" customWidth="1"/>
+    <col min="11" max="11" width="133.125" style="44" customWidth="1"/>
+    <col min="12" max="12" width="20.375" style="44" customWidth="1"/>
+    <col min="13" max="13" width="14.5" style="44" customWidth="1"/>
+    <col min="14" max="16384" width="10.875" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.2" thickBot="1">
+    <row r="1" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:16" ht="15.6">
+    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="88"/>
-      <c r="F2" s="80" t="s">
+      <c r="D2" s="83"/>
+      <c r="F2" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="81"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="15.6">
+    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="89">
+      <c r="C3" s="84">
         <v>7</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="F3" s="82">
+      <c r="D3" s="85"/>
+      <c r="F3" s="77">
         <v>42069</v>
       </c>
-      <c r="G3" s="83"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="15.6">
+    <row r="4" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="D4" s="90"/>
+      <c r="D4" s="85"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="52" t="s">
+      <c r="G4" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="16.2" thickBot="1">
+    <row r="5" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="92" t="s">
+      <c r="C5" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="D5" s="93"/>
+      <c r="D5" s="88"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="54" t="str">
+      <c r="F5" s="50" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
         <v>Motor del recurso</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="G5" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="43"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="40"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="16.2" thickBot="1">
+    <row r="6" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2204,20 +2766,20 @@
       <c r="E6" s="2"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1">
+    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="112" t="s">
-        <v>151</v>
-      </c>
-      <c r="D7" s="56" t="s">
+      <c r="C7" s="74" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" s="52" t="s">
         <v>39</v>
       </c>
       <c r="F7" s="1"/>
@@ -2227,2609 +2789,2611 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:16" s="59" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A8" s="57"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
+    <row r="8" spans="1:19" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="84" t="s">
+      <c r="F8" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="58"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-    </row>
-    <row r="9" spans="1:16" ht="13.8" thickBot="1">
-      <c r="A9" s="8" t="s">
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="54"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+    </row>
+    <row r="9" spans="1:19" s="111" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="109" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="42" t="s">
+      <c r="H9" s="109" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="42" t="s">
+      <c r="I9" s="109" t="s">
         <v>121</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="78" t="s">
+      <c r="K9" s="110" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="59" customFormat="1" ht="409.6">
-      <c r="A10" s="60">
+    <row r="10" spans="1:19" s="116" customFormat="1" ht="362.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="112">
         <v>70</v>
       </c>
-      <c r="B10" s="47" t="s">
-        <v>150</v>
-      </c>
-      <c r="C10" s="61" t="str">
+      <c r="B10" s="117" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="113" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Recurso M7A</v>
       </c>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="114" t="s">
         <v>147</v>
       </c>
-      <c r="E10" s="62" t="s">
+      <c r="E10" s="114" t="s">
         <v>148</v>
       </c>
-      <c r="F10" s="62" t="str">
+      <c r="F10" s="114" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>MT_07_01_REC70_70n.png</v>
-      </c>
-      <c r="G10" s="62" t="str">
+        <v>MA_07_01_REC70_70n.png</v>
+      </c>
+      <c r="G10" s="114" t="str">
         <f>IF(F10&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>286 x 286 px</v>
       </c>
-      <c r="H10" s="62" t="str">
+      <c r="H10" s="114" t="str">
         <f>IF(AND(I10&lt;&gt;"",I10&lt;&gt;0),IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>MT_07_01_REC70_70a.png</v>
-      </c>
-      <c r="I10" s="62" t="str">
+        <v>MA_07_01_REC70_70a.png</v>
+      </c>
+      <c r="I10" s="114" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J10" s="63" t="s">
+      <c r="J10" s="115" t="s">
         <v>149</v>
       </c>
-      <c r="K10" s="79" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="59" customFormat="1" ht="13.95" customHeight="1">
-      <c r="A11" s="60"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="61" t="str">
+      <c r="K10" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="L10"/>
+    </row>
+    <row r="11" spans="1:19" s="55" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="56"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="57" t="str">
         <f t="shared" ref="C11:C22" si="0">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v/>
       </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62" t="str">
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58" t="str">
         <f t="shared" ref="F11:F74" si="1">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v/>
       </c>
-      <c r="G11" s="62" t="str">
+      <c r="G11" s="58" t="str">
         <f>IF(F11&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H11" s="62" t="str">
+      <c r="H11" s="58" t="str">
         <f t="shared" ref="H11:H74" si="2">IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v/>
       </c>
-      <c r="I11" s="62" t="str">
+      <c r="I11" s="58" t="str">
         <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J11" s="52"/>
-      <c r="K11" s="77"/>
-    </row>
-    <row r="12" spans="1:16" s="59" customFormat="1" ht="15.6">
-      <c r="A12" s="60"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="61" t="str">
+      <c r="J11" s="48"/>
+      <c r="K11" s="72"/>
+    </row>
+    <row r="12" spans="1:19" s="55" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="56"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62" t="str">
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G12" s="62" t="str">
+      <c r="G12" s="58" t="str">
         <f>IF(F12&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H12" s="62" t="str">
+      <c r="H12" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I12" s="62" t="str">
+      <c r="I12" s="58" t="str">
         <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J12" s="52"/>
-      <c r="K12" s="77"/>
-    </row>
-    <row r="13" spans="1:16" s="59" customFormat="1" ht="15.6">
-      <c r="A13" s="60"/>
-      <c r="B13" s="73"/>
-      <c r="C13" s="61" t="str">
+      <c r="J12" s="48"/>
+      <c r="K12" s="72"/>
+      <c r="S12"/>
+    </row>
+    <row r="13" spans="1:19" s="55" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="56"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62" t="str">
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G13" s="62" t="str">
+      <c r="G13" s="58" t="str">
         <f>IF(F13&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H13" s="62" t="str">
+      <c r="H13" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I13" s="62" t="str">
+      <c r="I13" s="58" t="str">
         <f>IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J13" s="52"/>
-      <c r="K13" s="77"/>
-    </row>
-    <row r="14" spans="1:16" s="59" customFormat="1" ht="15.6">
-      <c r="A14" s="60"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="61" t="str">
+      <c r="J13" s="48"/>
+      <c r="K13" s="72"/>
+    </row>
+    <row r="14" spans="1:19" s="55" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="56"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62" t="str">
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G14" s="62" t="str">
+      <c r="G14" s="58" t="str">
         <f>IF(F14&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H14" s="62" t="str">
+      <c r="H14" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I14" s="62" t="str">
+      <c r="I14" s="58" t="str">
         <f>IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J14" s="52"/>
-      <c r="K14" s="77"/>
-    </row>
-    <row r="15" spans="1:16" s="59" customFormat="1" ht="15.6">
-      <c r="A15" s="60"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="61" t="str">
+      <c r="J14" s="48"/>
+      <c r="K14" s="72"/>
+    </row>
+    <row r="15" spans="1:19" s="55" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="56"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62" t="str">
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G15" s="62" t="str">
+      <c r="G15" s="58" t="str">
         <f>IF(F15&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H15" s="62" t="str">
+      <c r="H15" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I15" s="62" t="str">
+      <c r="I15" s="58" t="str">
         <f>IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J15" s="75"/>
-      <c r="K15" s="77"/>
-    </row>
-    <row r="16" spans="1:16" s="59" customFormat="1" ht="15.6">
-      <c r="A16" s="60"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="61" t="str">
+      <c r="J15" s="70"/>
+      <c r="K15" s="72"/>
+    </row>
+    <row r="16" spans="1:19" s="55" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="56"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62" t="str">
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G16" s="62" t="str">
+      <c r="G16" s="58" t="str">
         <f>IF(F16&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H16" s="62" t="str">
+      <c r="H16" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I16" s="62" t="str">
+      <c r="I16" s="58" t="str">
         <f>IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J16" s="76"/>
-      <c r="K16" s="77"/>
-    </row>
-    <row r="17" spans="1:11" s="59" customFormat="1">
-      <c r="A17" s="60"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="61" t="str">
+      <c r="J16" s="71"/>
+      <c r="K16" s="72"/>
+    </row>
+    <row r="17" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="56"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62" t="str">
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G17" s="62" t="str">
+      <c r="G17" s="58" t="str">
         <f>IF(F17&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H17" s="62" t="str">
+      <c r="H17" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I17" s="62" t="str">
+      <c r="I17" s="58" t="str">
         <f>IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J17" s="75"/>
-      <c r="K17" s="52"/>
-    </row>
-    <row r="18" spans="1:11" s="59" customFormat="1">
-      <c r="A18" s="60"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="61" t="str">
+      <c r="J17" s="70"/>
+      <c r="K17" s="48"/>
+    </row>
+    <row r="18" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="56"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62" t="str">
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G18" s="62" t="str">
+      <c r="G18" s="58" t="str">
         <f>IF(F18&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H18" s="62" t="str">
+      <c r="H18" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I18" s="62" t="str">
+      <c r="I18" s="58" t="str">
         <f>IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-    </row>
-    <row r="19" spans="1:11" s="59" customFormat="1" ht="13.8">
-      <c r="A19" s="60"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="61" t="str">
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+    </row>
+    <row r="19" spans="1:11" s="55" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="56"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62" t="str">
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G19" s="62" t="str">
+      <c r="G19" s="58" t="str">
         <f>IF(F19&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H19" s="62" t="str">
+      <c r="H19" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I19" s="62" t="str">
+      <c r="I19" s="58" t="str">
         <f>IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J19" s="66"/>
-      <c r="K19" s="67"/>
-    </row>
-    <row r="20" spans="1:11" s="59" customFormat="1">
-      <c r="A20" s="60"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="61" t="str">
+      <c r="J19" s="61"/>
+      <c r="K19" s="62"/>
+    </row>
+    <row r="20" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="56"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62" t="str">
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G20" s="62" t="str">
+      <c r="G20" s="58" t="str">
         <f>IF(F20&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H20" s="62" t="str">
+      <c r="H20" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I20" s="62" t="str">
+      <c r="I20" s="58" t="str">
         <f>IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J20" s="64"/>
-      <c r="K20" s="65"/>
-    </row>
-    <row r="21" spans="1:11" s="59" customFormat="1">
-      <c r="A21" s="60"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="61" t="str">
+      <c r="J20" s="59"/>
+      <c r="K20" s="60"/>
+    </row>
+    <row r="21" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="56"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62" t="str">
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G21" s="62" t="str">
+      <c r="G21" s="58" t="str">
         <f>IF(F21&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H21" s="62" t="str">
+      <c r="H21" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I21" s="62" t="str">
+      <c r="I21" s="58" t="str">
         <f>IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-    </row>
-    <row r="22" spans="1:11" s="59" customFormat="1">
-      <c r="A22" s="60"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="61" t="str">
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+    </row>
+    <row r="22" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="56"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62" t="str">
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G22" s="62" t="str">
+      <c r="G22" s="58" t="str">
         <f>IF(F22&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H22" s="62" t="str">
+      <c r="H22" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I22" s="62" t="str">
+      <c r="I22" s="58" t="str">
         <f>IF(OR(B22&lt;&gt;"",J22&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J22" s="62"/>
+      <c r="J22" s="58"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:11" s="59" customFormat="1">
-      <c r="A23" s="71" t="str">
+    <row r="23" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="66" t="str">
         <f t="shared" ref="A23:A30" si="3">IF(OR(B23&lt;&gt;"",J23&lt;&gt;""),CONCATENATE(LEFT(A22,3),IF(MID(A22,4,2)+1&lt;10,CONCATENATE("0",MID(A22,4,2)+1))),"")</f>
         <v/>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62" t="str">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G23" s="62" t="str">
+      <c r="G23" s="58" t="str">
         <f>IF(F23&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H23" s="62" t="str">
+      <c r="H23" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I23" s="62" t="str">
+      <c r="I23" s="58" t="str">
         <f>IF(OR(B23&lt;&gt;"",J23&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J23" s="64"/>
-      <c r="K23" s="64"/>
-    </row>
-    <row r="24" spans="1:11" s="59" customFormat="1">
-      <c r="A24" s="71" t="str">
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+    </row>
+    <row r="24" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="66" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62" t="str">
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G24" s="62" t="str">
+      <c r="G24" s="58" t="str">
         <f>IF(F24&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H24" s="62" t="str">
+      <c r="H24" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I24" s="62" t="str">
+      <c r="I24" s="58" t="str">
         <f>IF(OR(B24&lt;&gt;"",J24&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J24" s="62"/>
-      <c r="K24" s="45"/>
-    </row>
-    <row r="25" spans="1:11" s="59" customFormat="1">
-      <c r="A25" s="71" t="str">
+      <c r="J24" s="58"/>
+      <c r="K24" s="42"/>
+    </row>
+    <row r="25" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="66" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62" t="str">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G25" s="62" t="str">
+      <c r="G25" s="58" t="str">
         <f>IF(F25&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H25" s="62" t="str">
+      <c r="H25" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I25" s="62" t="str">
+      <c r="I25" s="58" t="str">
         <f>IF(OR(B25&lt;&gt;"",J25&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J25" s="62"/>
-      <c r="K25" s="64"/>
-    </row>
-    <row r="26" spans="1:11" s="59" customFormat="1">
-      <c r="A26" s="71" t="str">
+      <c r="J25" s="58"/>
+      <c r="K25" s="59"/>
+    </row>
+    <row r="26" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="66" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62" t="str">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G26" s="62" t="str">
+      <c r="G26" s="58" t="str">
         <f>IF(F26&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H26" s="62" t="str">
+      <c r="H26" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I26" s="62" t="str">
+      <c r="I26" s="58" t="str">
         <f>IF(OR(B26&lt;&gt;"",J26&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J26" s="62"/>
-      <c r="K26" s="64"/>
-    </row>
-    <row r="27" spans="1:11" s="59" customFormat="1">
-      <c r="A27" s="71" t="str">
+      <c r="J26" s="58"/>
+      <c r="K26" s="59"/>
+    </row>
+    <row r="27" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="66" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62" t="str">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G27" s="62" t="str">
+      <c r="G27" s="58" t="str">
         <f>IF(F27&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H27" s="62" t="str">
+      <c r="H27" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I27" s="62" t="str">
+      <c r="I27" s="58" t="str">
         <f>IF(OR(B27&lt;&gt;"",J27&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64"/>
-    </row>
-    <row r="28" spans="1:11" s="59" customFormat="1">
-      <c r="A28" s="71" t="str">
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+    </row>
+    <row r="28" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="66" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B28" s="61"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62" t="str">
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G28" s="62" t="str">
+      <c r="G28" s="58" t="str">
         <f>IF(F28&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H28" s="62" t="str">
+      <c r="H28" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I28" s="62" t="str">
+      <c r="I28" s="58" t="str">
         <f>IF(OR(B28&lt;&gt;"",J28&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J28" s="64"/>
-      <c r="K28" s="64"/>
-    </row>
-    <row r="29" spans="1:11" s="59" customFormat="1">
-      <c r="A29" s="71" t="str">
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+    </row>
+    <row r="29" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="66" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62" t="str">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G29" s="62" t="str">
+      <c r="G29" s="58" t="str">
         <f>IF(F29&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H29" s="62" t="str">
+      <c r="H29" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I29" s="62" t="str">
+      <c r="I29" s="58" t="str">
         <f>IF(OR(B29&lt;&gt;"",J29&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J29" s="64"/>
-      <c r="K29" s="64"/>
-    </row>
-    <row r="30" spans="1:11" s="59" customFormat="1">
-      <c r="A30" s="71" t="str">
+      <c r="J29" s="59"/>
+      <c r="K29" s="59"/>
+    </row>
+    <row r="30" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="66" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62" t="str">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G30" s="62" t="str">
+      <c r="G30" s="58" t="str">
         <f>IF(F30&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H30" s="62" t="str">
+      <c r="H30" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I30" s="62" t="str">
+      <c r="I30" s="58" t="str">
         <f>IF(OR(B30&lt;&gt;"",J30&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J30" s="64"/>
-      <c r="K30" s="64"/>
-    </row>
-    <row r="31" spans="1:11" s="59" customFormat="1">
-      <c r="A31" s="71"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62" t="str">
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
+    </row>
+    <row r="31" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="66"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G31" s="62" t="str">
+      <c r="G31" s="58" t="str">
         <f>IF(F31&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H31" s="62" t="str">
+      <c r="H31" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I31" s="62" t="str">
+      <c r="I31" s="58" t="str">
         <f>IF(OR(B31&lt;&gt;"",J31&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J31" s="64"/>
-      <c r="K31" s="64"/>
-    </row>
-    <row r="32" spans="1:11" s="59" customFormat="1">
-      <c r="A32" s="71"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62" t="str">
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+    </row>
+    <row r="32" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="66"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G32" s="62" t="str">
+      <c r="G32" s="58" t="str">
         <f>IF(F32&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H32" s="62" t="str">
+      <c r="H32" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I32" s="62" t="str">
+      <c r="I32" s="58" t="str">
         <f>IF(OR(B32&lt;&gt;"",J32&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J32" s="64"/>
-      <c r="K32" s="64"/>
-    </row>
-    <row r="33" spans="1:11" s="59" customFormat="1">
-      <c r="A33" s="71"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62" t="str">
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
+    </row>
+    <row r="33" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="66"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G33" s="62" t="str">
+      <c r="G33" s="58" t="str">
         <f>IF(F33&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H33" s="62" t="str">
+      <c r="H33" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I33" s="62" t="str">
+      <c r="I33" s="58" t="str">
         <f>IF(OR(B33&lt;&gt;"",J33&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J33" s="64"/>
-      <c r="K33" s="64"/>
-    </row>
-    <row r="34" spans="1:11" s="59" customFormat="1">
-      <c r="A34" s="71"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62" t="str">
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
+    </row>
+    <row r="34" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="66"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G34" s="62" t="str">
+      <c r="G34" s="58" t="str">
         <f>IF(F34&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H34" s="62" t="str">
+      <c r="H34" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I34" s="62" t="str">
+      <c r="I34" s="58" t="str">
         <f>IF(OR(B34&lt;&gt;"",J34&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J34" s="64"/>
-      <c r="K34" s="64"/>
-    </row>
-    <row r="35" spans="1:11" s="59" customFormat="1">
-      <c r="A35" s="71"/>
-      <c r="B35" s="61"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62" t="str">
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
+    </row>
+    <row r="35" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="66"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G35" s="62" t="str">
+      <c r="G35" s="58" t="str">
         <f>IF(F35&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H35" s="62" t="str">
+      <c r="H35" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I35" s="62" t="str">
+      <c r="I35" s="58" t="str">
         <f>IF(OR(B35&lt;&gt;"",J35&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J35" s="62"/>
-      <c r="K35" s="45"/>
-    </row>
-    <row r="36" spans="1:11" s="59" customFormat="1">
-      <c r="A36" s="71"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62" t="str">
+      <c r="J35" s="58"/>
+      <c r="K35" s="42"/>
+    </row>
+    <row r="36" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="66"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G36" s="62" t="str">
+      <c r="G36" s="58" t="str">
         <f>IF(F36&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H36" s="62" t="str">
+      <c r="H36" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I36" s="62" t="str">
+      <c r="I36" s="58" t="str">
         <f>IF(OR(B36&lt;&gt;"",J36&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J36" s="62"/>
-      <c r="K36" s="45"/>
-    </row>
-    <row r="37" spans="1:11" s="59" customFormat="1">
-      <c r="A37" s="71"/>
-      <c r="B37" s="61"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62" t="str">
+      <c r="J36" s="58"/>
+      <c r="K36" s="42"/>
+    </row>
+    <row r="37" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="66"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G37" s="62" t="str">
+      <c r="G37" s="58" t="str">
         <f>IF(F37&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H37" s="62" t="str">
+      <c r="H37" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I37" s="62" t="str">
+      <c r="I37" s="58" t="str">
         <f>IF(OR(B37&lt;&gt;"",J37&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
       <c r="J37" s="4"/>
-      <c r="K37" s="45"/>
-    </row>
-    <row r="38" spans="1:11" s="59" customFormat="1">
-      <c r="A38" s="71"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62" t="str">
+      <c r="K37" s="42"/>
+    </row>
+    <row r="38" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="66"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G38" s="62" t="str">
+      <c r="G38" s="58" t="str">
         <f>IF(F38&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H38" s="62" t="str">
+      <c r="H38" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I38" s="62" t="str">
+      <c r="I38" s="58" t="str">
         <f>IF(OR(B38&lt;&gt;"",J38&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J38" s="64"/>
-      <c r="K38" s="45"/>
-    </row>
-    <row r="39" spans="1:11" s="59" customFormat="1">
-      <c r="A39" s="71"/>
-      <c r="B39" s="61"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62" t="str">
+      <c r="J38" s="59"/>
+      <c r="K38" s="42"/>
+    </row>
+    <row r="39" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="66"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G39" s="62" t="str">
+      <c r="G39" s="58" t="str">
         <f>IF(F39&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H39" s="62" t="str">
+      <c r="H39" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I39" s="62" t="str">
+      <c r="I39" s="58" t="str">
         <f>IF(OR(B39&lt;&gt;"",J39&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J39" s="62"/>
-      <c r="K39" s="45"/>
-    </row>
-    <row r="40" spans="1:11" s="59" customFormat="1">
-      <c r="A40" s="71"/>
-      <c r="B40" s="61"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62" t="str">
+      <c r="J39" s="58"/>
+      <c r="K39" s="42"/>
+    </row>
+    <row r="40" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="66"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G40" s="62" t="str">
+      <c r="G40" s="58" t="str">
         <f>IF(F40&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H40" s="62" t="str">
+      <c r="H40" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I40" s="62" t="str">
+      <c r="I40" s="58" t="str">
         <f>IF(OR(B40&lt;&gt;"",J40&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J40" s="62"/>
-      <c r="K40" s="45"/>
-    </row>
-    <row r="41" spans="1:11" s="59" customFormat="1">
-      <c r="A41" s="71"/>
-      <c r="B41" s="61"/>
-      <c r="C41" s="61"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62" t="str">
+      <c r="J40" s="58"/>
+      <c r="K40" s="42"/>
+    </row>
+    <row r="41" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="66"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G41" s="62" t="str">
+      <c r="G41" s="58" t="str">
         <f>IF(F41&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H41" s="62" t="str">
+      <c r="H41" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I41" s="62" t="str">
+      <c r="I41" s="58" t="str">
         <f>IF(OR(B41&lt;&gt;"",J41&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J41" s="62"/>
-      <c r="K41" s="45"/>
-    </row>
-    <row r="42" spans="1:11" s="59" customFormat="1">
-      <c r="A42" s="71"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62" t="str">
+      <c r="J41" s="58"/>
+      <c r="K41" s="42"/>
+    </row>
+    <row r="42" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="66"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G42" s="62" t="str">
+      <c r="G42" s="58" t="str">
         <f>IF(F42&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H42" s="62" t="str">
+      <c r="H42" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I42" s="62" t="str">
+      <c r="I42" s="58" t="str">
         <f>IF(OR(B42&lt;&gt;"",J42&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J42" s="62"/>
-      <c r="K42" s="45"/>
-    </row>
-    <row r="43" spans="1:11" s="59" customFormat="1">
-      <c r="A43" s="71"/>
-      <c r="B43" s="61"/>
-      <c r="C43" s="61"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="62" t="str">
+      <c r="J42" s="58"/>
+      <c r="K42" s="42"/>
+    </row>
+    <row r="43" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="66"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G43" s="62" t="str">
+      <c r="G43" s="58" t="str">
         <f>IF(F43&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H43" s="62" t="str">
+      <c r="H43" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I43" s="62" t="str">
+      <c r="I43" s="58" t="str">
         <f>IF(OR(B43&lt;&gt;"",J43&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J43" s="62"/>
-      <c r="K43" s="45"/>
-    </row>
-    <row r="44" spans="1:11" s="59" customFormat="1">
-      <c r="A44" s="71"/>
-      <c r="B44" s="61"/>
-      <c r="C44" s="61"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="62" t="str">
+      <c r="J43" s="58"/>
+      <c r="K43" s="42"/>
+    </row>
+    <row r="44" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="66"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G44" s="62" t="str">
+      <c r="G44" s="58" t="str">
         <f>IF(F44&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H44" s="62" t="str">
+      <c r="H44" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I44" s="62" t="str">
+      <c r="I44" s="58" t="str">
         <f>IF(OR(B44&lt;&gt;"",J44&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J44" s="62"/>
-      <c r="K44" s="45"/>
-    </row>
-    <row r="45" spans="1:11" s="59" customFormat="1">
-      <c r="A45" s="71"/>
-      <c r="B45" s="61"/>
-      <c r="C45" s="61"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="62" t="str">
+      <c r="J44" s="58"/>
+      <c r="K44" s="42"/>
+    </row>
+    <row r="45" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="66"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G45" s="62" t="str">
+      <c r="G45" s="58" t="str">
         <f>IF(F45&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H45" s="62" t="str">
+      <c r="H45" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I45" s="62" t="str">
+      <c r="I45" s="58" t="str">
         <f>IF(OR(B45&lt;&gt;"",J45&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J45" s="62"/>
-      <c r="K45" s="45"/>
-    </row>
-    <row r="46" spans="1:11" s="59" customFormat="1">
-      <c r="A46" s="71"/>
-      <c r="B46" s="61"/>
-      <c r="C46" s="61"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="62"/>
-      <c r="F46" s="62" t="str">
+      <c r="J45" s="58"/>
+      <c r="K45" s="42"/>
+    </row>
+    <row r="46" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="66"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G46" s="62" t="str">
+      <c r="G46" s="58" t="str">
         <f>IF(F46&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H46" s="62" t="str">
+      <c r="H46" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I46" s="62" t="str">
+      <c r="I46" s="58" t="str">
         <f>IF(OR(B46&lt;&gt;"",J46&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J46" s="62"/>
-      <c r="K46" s="45"/>
-    </row>
-    <row r="47" spans="1:11" s="59" customFormat="1">
-      <c r="A47" s="71"/>
-      <c r="B47" s="61"/>
-      <c r="C47" s="61"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="62" t="str">
+      <c r="J46" s="58"/>
+      <c r="K46" s="42"/>
+    </row>
+    <row r="47" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="66"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G47" s="62" t="str">
+      <c r="G47" s="58" t="str">
         <f>IF(F47&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H47" s="62" t="str">
+      <c r="H47" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I47" s="62" t="str">
+      <c r="I47" s="58" t="str">
         <f>IF(OR(B47&lt;&gt;"",J47&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J47" s="62"/>
-      <c r="K47" s="45"/>
-    </row>
-    <row r="48" spans="1:11" s="59" customFormat="1">
-      <c r="A48" s="71"/>
-      <c r="B48" s="61"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="62" t="str">
+      <c r="J47" s="58"/>
+      <c r="K47" s="42"/>
+    </row>
+    <row r="48" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="66"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G48" s="62" t="str">
+      <c r="G48" s="58" t="str">
         <f>IF(F48&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H48" s="62" t="str">
+      <c r="H48" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I48" s="62" t="str">
+      <c r="I48" s="58" t="str">
         <f>IF(OR(B48&lt;&gt;"",J48&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J48" s="62"/>
-      <c r="K48" s="45"/>
-    </row>
-    <row r="49" spans="1:11" s="59" customFormat="1">
-      <c r="A49" s="71"/>
-      <c r="B49" s="61"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="62"/>
-      <c r="F49" s="62" t="str">
+      <c r="J48" s="58"/>
+      <c r="K48" s="42"/>
+    </row>
+    <row r="49" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="66"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G49" s="62" t="str">
+      <c r="G49" s="58" t="str">
         <f>IF(F49&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H49" s="62" t="str">
+      <c r="H49" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I49" s="62" t="str">
+      <c r="I49" s="58" t="str">
         <f>IF(OR(B49&lt;&gt;"",J49&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J49" s="62"/>
-      <c r="K49" s="45"/>
-    </row>
-    <row r="50" spans="1:11" s="59" customFormat="1">
-      <c r="A50" s="71"/>
-      <c r="B50" s="61"/>
-      <c r="C50" s="61"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="62"/>
-      <c r="F50" s="62" t="str">
+      <c r="J49" s="58"/>
+      <c r="K49" s="42"/>
+    </row>
+    <row r="50" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="66"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="58"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G50" s="62" t="str">
+      <c r="G50" s="58" t="str">
         <f>IF(F50&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H50" s="62" t="str">
+      <c r="H50" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I50" s="62" t="str">
+      <c r="I50" s="58" t="str">
         <f>IF(OR(B50&lt;&gt;"",J50&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J50" s="62"/>
-      <c r="K50" s="45"/>
-    </row>
-    <row r="51" spans="1:11" s="59" customFormat="1">
-      <c r="A51" s="71"/>
-      <c r="B51" s="61"/>
-      <c r="C51" s="61"/>
-      <c r="D51" s="62"/>
-      <c r="E51" s="62"/>
-      <c r="F51" s="62" t="str">
+      <c r="J50" s="58"/>
+      <c r="K50" s="42"/>
+    </row>
+    <row r="51" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="66"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G51" s="62" t="str">
+      <c r="G51" s="58" t="str">
         <f>IF(F51&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H51" s="62" t="str">
+      <c r="H51" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I51" s="62" t="str">
+      <c r="I51" s="58" t="str">
         <f>IF(OR(B51&lt;&gt;"",J51&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J51" s="62"/>
-      <c r="K51" s="45"/>
-    </row>
-    <row r="52" spans="1:11" s="59" customFormat="1">
-      <c r="A52" s="71"/>
-      <c r="B52" s="61"/>
-      <c r="C52" s="61"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="62"/>
-      <c r="F52" s="62" t="str">
+      <c r="J51" s="58"/>
+      <c r="K51" s="42"/>
+    </row>
+    <row r="52" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="66"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="58"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G52" s="62" t="str">
+      <c r="G52" s="58" t="str">
         <f>IF(F52&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H52" s="62" t="str">
+      <c r="H52" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I52" s="62" t="str">
+      <c r="I52" s="58" t="str">
         <f>IF(OR(B52&lt;&gt;"",J52&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J52" s="62"/>
-      <c r="K52" s="45"/>
-    </row>
-    <row r="53" spans="1:11" s="59" customFormat="1">
-      <c r="A53" s="71"/>
-      <c r="B53" s="61"/>
-      <c r="C53" s="61"/>
-      <c r="D53" s="62"/>
-      <c r="E53" s="62"/>
-      <c r="F53" s="62" t="str">
+      <c r="J52" s="58"/>
+      <c r="K52" s="42"/>
+    </row>
+    <row r="53" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="66"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="58"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G53" s="62" t="str">
+      <c r="G53" s="58" t="str">
         <f>IF(F53&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H53" s="62" t="str">
+      <c r="H53" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I53" s="62" t="str">
+      <c r="I53" s="58" t="str">
         <f>IF(OR(B53&lt;&gt;"",J53&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J53" s="62"/>
-      <c r="K53" s="45"/>
-    </row>
-    <row r="54" spans="1:11" s="59" customFormat="1">
-      <c r="A54" s="71"/>
-      <c r="B54" s="61"/>
-      <c r="C54" s="61"/>
-      <c r="D54" s="62"/>
-      <c r="E54" s="62"/>
-      <c r="F54" s="62" t="str">
+      <c r="J53" s="58"/>
+      <c r="K53" s="42"/>
+    </row>
+    <row r="54" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="66"/>
+      <c r="B54" s="57"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="58"/>
+      <c r="E54" s="58"/>
+      <c r="F54" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G54" s="62" t="str">
+      <c r="G54" s="58" t="str">
         <f>IF(F54&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H54" s="62" t="str">
+      <c r="H54" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I54" s="62" t="str">
+      <c r="I54" s="58" t="str">
         <f>IF(OR(B54&lt;&gt;"",J54&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J54" s="62"/>
-      <c r="K54" s="45"/>
-    </row>
-    <row r="55" spans="1:11" s="59" customFormat="1">
-      <c r="A55" s="71"/>
-      <c r="B55" s="61"/>
-      <c r="C55" s="61"/>
-      <c r="D55" s="62"/>
-      <c r="E55" s="62"/>
-      <c r="F55" s="62" t="str">
+      <c r="J54" s="58"/>
+      <c r="K54" s="42"/>
+    </row>
+    <row r="55" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="66"/>
+      <c r="B55" s="57"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="58"/>
+      <c r="F55" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G55" s="62" t="str">
+      <c r="G55" s="58" t="str">
         <f>IF(F55&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H55" s="62" t="str">
+      <c r="H55" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I55" s="62" t="str">
+      <c r="I55" s="58" t="str">
         <f>IF(OR(B55&lt;&gt;"",J55&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J55" s="62"/>
-      <c r="K55" s="45"/>
-    </row>
-    <row r="56" spans="1:11" s="59" customFormat="1">
-      <c r="A56" s="71"/>
-      <c r="B56" s="61"/>
-      <c r="C56" s="61"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="62"/>
-      <c r="F56" s="62" t="str">
+      <c r="J55" s="58"/>
+      <c r="K55" s="42"/>
+    </row>
+    <row r="56" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="66"/>
+      <c r="B56" s="57"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="58"/>
+      <c r="E56" s="58"/>
+      <c r="F56" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G56" s="62" t="str">
+      <c r="G56" s="58" t="str">
         <f>IF(F56&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H56" s="62" t="str">
+      <c r="H56" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I56" s="62" t="str">
+      <c r="I56" s="58" t="str">
         <f>IF(OR(B56&lt;&gt;"",J56&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J56" s="62"/>
-      <c r="K56" s="45"/>
-    </row>
-    <row r="57" spans="1:11" s="59" customFormat="1">
-      <c r="A57" s="71"/>
-      <c r="B57" s="61"/>
-      <c r="C57" s="61"/>
-      <c r="D57" s="62"/>
-      <c r="E57" s="62"/>
-      <c r="F57" s="62" t="str">
+      <c r="J56" s="58"/>
+      <c r="K56" s="42"/>
+    </row>
+    <row r="57" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="66"/>
+      <c r="B57" s="57"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="58"/>
+      <c r="E57" s="58"/>
+      <c r="F57" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G57" s="62" t="str">
+      <c r="G57" s="58" t="str">
         <f>IF(F57&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H57" s="62" t="str">
+      <c r="H57" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I57" s="62" t="str">
+      <c r="I57" s="58" t="str">
         <f>IF(OR(B57&lt;&gt;"",J57&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J57" s="62"/>
-      <c r="K57" s="45"/>
-    </row>
-    <row r="58" spans="1:11" s="59" customFormat="1">
-      <c r="A58" s="71"/>
-      <c r="B58" s="61"/>
-      <c r="C58" s="61"/>
-      <c r="D58" s="62"/>
-      <c r="E58" s="62"/>
-      <c r="F58" s="62" t="str">
+      <c r="J57" s="58"/>
+      <c r="K57" s="42"/>
+    </row>
+    <row r="58" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="66"/>
+      <c r="B58" s="57"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="58"/>
+      <c r="E58" s="58"/>
+      <c r="F58" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G58" s="62" t="str">
+      <c r="G58" s="58" t="str">
         <f>IF(F58&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H58" s="62" t="str">
+      <c r="H58" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I58" s="62" t="str">
+      <c r="I58" s="58" t="str">
         <f>IF(OR(B58&lt;&gt;"",J58&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J58" s="62"/>
-      <c r="K58" s="45"/>
-    </row>
-    <row r="59" spans="1:11" s="59" customFormat="1">
-      <c r="A59" s="71"/>
-      <c r="B59" s="61"/>
-      <c r="C59" s="61"/>
-      <c r="D59" s="62"/>
-      <c r="E59" s="62"/>
-      <c r="F59" s="62" t="str">
+      <c r="J58" s="58"/>
+      <c r="K58" s="42"/>
+    </row>
+    <row r="59" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="66"/>
+      <c r="B59" s="57"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="58"/>
+      <c r="E59" s="58"/>
+      <c r="F59" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G59" s="62" t="str">
+      <c r="G59" s="58" t="str">
         <f>IF(F59&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H59" s="62" t="str">
+      <c r="H59" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I59" s="62" t="str">
+      <c r="I59" s="58" t="str">
         <f>IF(OR(B59&lt;&gt;"",J59&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J59" s="62"/>
-      <c r="K59" s="45"/>
-    </row>
-    <row r="60" spans="1:11" s="59" customFormat="1">
-      <c r="A60" s="71"/>
-      <c r="B60" s="61"/>
-      <c r="C60" s="61"/>
-      <c r="D60" s="62"/>
-      <c r="E60" s="62"/>
-      <c r="F60" s="62" t="str">
+      <c r="J59" s="58"/>
+      <c r="K59" s="42"/>
+    </row>
+    <row r="60" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="66"/>
+      <c r="B60" s="57"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="58"/>
+      <c r="E60" s="58"/>
+      <c r="F60" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G60" s="62" t="str">
+      <c r="G60" s="58" t="str">
         <f>IF(F60&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H60" s="62" t="str">
+      <c r="H60" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I60" s="62" t="str">
+      <c r="I60" s="58" t="str">
         <f>IF(OR(B60&lt;&gt;"",J60&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J60" s="62"/>
-      <c r="K60" s="45"/>
-    </row>
-    <row r="61" spans="1:11" s="59" customFormat="1">
-      <c r="A61" s="71"/>
-      <c r="B61" s="61"/>
-      <c r="C61" s="61"/>
-      <c r="D61" s="62"/>
-      <c r="E61" s="62"/>
-      <c r="F61" s="62" t="str">
+      <c r="J60" s="58"/>
+      <c r="K60" s="42"/>
+    </row>
+    <row r="61" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="66"/>
+      <c r="B61" s="57"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="58"/>
+      <c r="E61" s="58"/>
+      <c r="F61" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G61" s="62" t="str">
+      <c r="G61" s="58" t="str">
         <f>IF(F61&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H61" s="62" t="str">
+      <c r="H61" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I61" s="62" t="str">
+      <c r="I61" s="58" t="str">
         <f>IF(OR(B61&lt;&gt;"",J61&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J61" s="62"/>
-      <c r="K61" s="45"/>
-    </row>
-    <row r="62" spans="1:11" s="59" customFormat="1">
-      <c r="A62" s="71"/>
-      <c r="B62" s="71"/>
-      <c r="C62" s="71"/>
-      <c r="D62" s="62"/>
-      <c r="E62" s="62"/>
-      <c r="F62" s="62" t="str">
+      <c r="J61" s="58"/>
+      <c r="K61" s="42"/>
+    </row>
+    <row r="62" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="66"/>
+      <c r="B62" s="66"/>
+      <c r="C62" s="66"/>
+      <c r="D62" s="58"/>
+      <c r="E62" s="58"/>
+      <c r="F62" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G62" s="62" t="str">
+      <c r="G62" s="58" t="str">
         <f>IF(F62&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H62" s="62" t="str">
+      <c r="H62" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I62" s="62" t="str">
+      <c r="I62" s="58" t="str">
         <f>IF(OR(B62&lt;&gt;"",J62&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J62" s="62"/>
-      <c r="K62" s="45"/>
-    </row>
-    <row r="63" spans="1:11" s="59" customFormat="1">
-      <c r="A63" s="71"/>
-      <c r="B63" s="71"/>
-      <c r="C63" s="71"/>
-      <c r="D63" s="62"/>
-      <c r="E63" s="62"/>
-      <c r="F63" s="62" t="str">
+      <c r="J62" s="58"/>
+      <c r="K62" s="42"/>
+    </row>
+    <row r="63" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="66"/>
+      <c r="B63" s="66"/>
+      <c r="C63" s="66"/>
+      <c r="D63" s="58"/>
+      <c r="E63" s="58"/>
+      <c r="F63" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G63" s="62" t="str">
+      <c r="G63" s="58" t="str">
         <f>IF(F63&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H63" s="62" t="str">
+      <c r="H63" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I63" s="62" t="str">
+      <c r="I63" s="58" t="str">
         <f>IF(OR(B63&lt;&gt;"",J63&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J63" s="62"/>
-      <c r="K63" s="45"/>
-    </row>
-    <row r="64" spans="1:11" s="59" customFormat="1">
-      <c r="A64" s="71"/>
-      <c r="B64" s="71"/>
-      <c r="C64" s="71"/>
-      <c r="D64" s="62"/>
-      <c r="E64" s="62"/>
-      <c r="F64" s="62" t="str">
+      <c r="J63" s="58"/>
+      <c r="K63" s="42"/>
+    </row>
+    <row r="64" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="66"/>
+      <c r="B64" s="66"/>
+      <c r="C64" s="66"/>
+      <c r="D64" s="58"/>
+      <c r="E64" s="58"/>
+      <c r="F64" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G64" s="62" t="str">
+      <c r="G64" s="58" t="str">
         <f>IF(F64&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H64" s="62" t="str">
+      <c r="H64" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I64" s="62" t="str">
+      <c r="I64" s="58" t="str">
         <f>IF(OR(B64&lt;&gt;"",J64&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J64" s="62"/>
-      <c r="K64" s="45"/>
-    </row>
-    <row r="65" spans="1:11" s="59" customFormat="1">
-      <c r="A65" s="71"/>
-      <c r="B65" s="71"/>
-      <c r="C65" s="71"/>
-      <c r="D65" s="62"/>
-      <c r="E65" s="62"/>
-      <c r="F65" s="62" t="str">
+      <c r="J64" s="58"/>
+      <c r="K64" s="42"/>
+    </row>
+    <row r="65" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="66"/>
+      <c r="B65" s="66"/>
+      <c r="C65" s="66"/>
+      <c r="D65" s="58"/>
+      <c r="E65" s="58"/>
+      <c r="F65" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G65" s="62" t="str">
+      <c r="G65" s="58" t="str">
         <f>IF(F65&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H65" s="62" t="str">
+      <c r="H65" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I65" s="62" t="str">
+      <c r="I65" s="58" t="str">
         <f>IF(OR(B65&lt;&gt;"",J65&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J65" s="62"/>
-      <c r="K65" s="45"/>
-    </row>
-    <row r="66" spans="1:11" s="59" customFormat="1">
-      <c r="A66" s="71"/>
-      <c r="B66" s="71"/>
-      <c r="C66" s="71"/>
-      <c r="D66" s="62"/>
-      <c r="E66" s="62"/>
-      <c r="F66" s="62" t="str">
+      <c r="J65" s="58"/>
+      <c r="K65" s="42"/>
+    </row>
+    <row r="66" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="66"/>
+      <c r="B66" s="66"/>
+      <c r="C66" s="66"/>
+      <c r="D66" s="58"/>
+      <c r="E66" s="58"/>
+      <c r="F66" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G66" s="62" t="str">
+      <c r="G66" s="58" t="str">
         <f>IF(F66&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H66" s="62" t="str">
+      <c r="H66" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I66" s="62" t="str">
+      <c r="I66" s="58" t="str">
         <f>IF(OR(B66&lt;&gt;"",J66&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J66" s="62"/>
-      <c r="K66" s="45"/>
-    </row>
-    <row r="67" spans="1:11" s="59" customFormat="1">
-      <c r="A67" s="71"/>
-      <c r="B67" s="71"/>
-      <c r="C67" s="71"/>
-      <c r="D67" s="62"/>
-      <c r="E67" s="62"/>
-      <c r="F67" s="62" t="str">
+      <c r="J66" s="58"/>
+      <c r="K66" s="42"/>
+    </row>
+    <row r="67" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="66"/>
+      <c r="B67" s="66"/>
+      <c r="C67" s="66"/>
+      <c r="D67" s="58"/>
+      <c r="E67" s="58"/>
+      <c r="F67" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G67" s="62" t="str">
+      <c r="G67" s="58" t="str">
         <f>IF(F67&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H67" s="62" t="str">
+      <c r="H67" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I67" s="62" t="str">
+      <c r="I67" s="58" t="str">
         <f>IF(OR(B67&lt;&gt;"",J67&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J67" s="62"/>
-      <c r="K67" s="45"/>
-    </row>
-    <row r="68" spans="1:11" s="59" customFormat="1">
-      <c r="A68" s="71"/>
-      <c r="B68" s="71"/>
-      <c r="C68" s="71"/>
-      <c r="D68" s="62"/>
-      <c r="E68" s="62"/>
-      <c r="F68" s="62" t="str">
+      <c r="J67" s="58"/>
+      <c r="K67" s="42"/>
+    </row>
+    <row r="68" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="66"/>
+      <c r="B68" s="66"/>
+      <c r="C68" s="66"/>
+      <c r="D68" s="58"/>
+      <c r="E68" s="58"/>
+      <c r="F68" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G68" s="62" t="str">
+      <c r="G68" s="58" t="str">
         <f>IF(F68&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H68" s="62" t="str">
+      <c r="H68" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I68" s="62" t="str">
+      <c r="I68" s="58" t="str">
         <f>IF(OR(B68&lt;&gt;"",J68&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J68" s="62"/>
-      <c r="K68" s="45"/>
-    </row>
-    <row r="69" spans="1:11" s="59" customFormat="1">
-      <c r="A69" s="71"/>
-      <c r="B69" s="71"/>
-      <c r="C69" s="71"/>
-      <c r="D69" s="62"/>
-      <c r="E69" s="62"/>
-      <c r="F69" s="62" t="str">
+      <c r="J68" s="58"/>
+      <c r="K68" s="42"/>
+    </row>
+    <row r="69" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="66"/>
+      <c r="B69" s="66"/>
+      <c r="C69" s="66"/>
+      <c r="D69" s="58"/>
+      <c r="E69" s="58"/>
+      <c r="F69" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G69" s="62" t="str">
+      <c r="G69" s="58" t="str">
         <f>IF(F69&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H69" s="62" t="str">
+      <c r="H69" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I69" s="62" t="str">
+      <c r="I69" s="58" t="str">
         <f>IF(OR(B69&lt;&gt;"",J69&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J69" s="62"/>
-      <c r="K69" s="45"/>
-    </row>
-    <row r="70" spans="1:11" s="59" customFormat="1">
-      <c r="A70" s="71"/>
-      <c r="B70" s="71"/>
-      <c r="C70" s="71"/>
-      <c r="D70" s="62"/>
-      <c r="E70" s="62"/>
-      <c r="F70" s="62" t="str">
+      <c r="J69" s="58"/>
+      <c r="K69" s="42"/>
+    </row>
+    <row r="70" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="66"/>
+      <c r="B70" s="66"/>
+      <c r="C70" s="66"/>
+      <c r="D70" s="58"/>
+      <c r="E70" s="58"/>
+      <c r="F70" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G70" s="62" t="str">
+      <c r="G70" s="58" t="str">
         <f>IF(F70&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H70" s="62" t="str">
+      <c r="H70" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I70" s="62" t="str">
+      <c r="I70" s="58" t="str">
         <f>IF(OR(B70&lt;&gt;"",J70&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J70" s="62"/>
-      <c r="K70" s="45"/>
-    </row>
-    <row r="71" spans="1:11" s="59" customFormat="1">
-      <c r="A71" s="71"/>
-      <c r="B71" s="71"/>
-      <c r="C71" s="71"/>
-      <c r="D71" s="62"/>
-      <c r="E71" s="62"/>
-      <c r="F71" s="62" t="str">
+      <c r="J70" s="58"/>
+      <c r="K70" s="42"/>
+    </row>
+    <row r="71" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="66"/>
+      <c r="B71" s="66"/>
+      <c r="C71" s="66"/>
+      <c r="D71" s="58"/>
+      <c r="E71" s="58"/>
+      <c r="F71" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G71" s="62" t="str">
+      <c r="G71" s="58" t="str">
         <f>IF(F71&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H71" s="62" t="str">
+      <c r="H71" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I71" s="62" t="str">
+      <c r="I71" s="58" t="str">
         <f>IF(OR(B71&lt;&gt;"",J71&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J71" s="62"/>
-      <c r="K71" s="45"/>
-    </row>
-    <row r="72" spans="1:11" s="59" customFormat="1">
-      <c r="A72" s="71"/>
-      <c r="B72" s="71"/>
-      <c r="C72" s="71"/>
-      <c r="D72" s="62"/>
-      <c r="E72" s="62"/>
-      <c r="F72" s="62" t="str">
+      <c r="J71" s="58"/>
+      <c r="K71" s="42"/>
+    </row>
+    <row r="72" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="66"/>
+      <c r="B72" s="66"/>
+      <c r="C72" s="66"/>
+      <c r="D72" s="58"/>
+      <c r="E72" s="58"/>
+      <c r="F72" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G72" s="62" t="str">
+      <c r="G72" s="58" t="str">
         <f>IF(F72&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H72" s="62" t="str">
+      <c r="H72" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I72" s="62" t="str">
+      <c r="I72" s="58" t="str">
         <f>IF(OR(B72&lt;&gt;"",J72&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J72" s="62"/>
-      <c r="K72" s="45"/>
-    </row>
-    <row r="73" spans="1:11" s="59" customFormat="1">
-      <c r="A73" s="71"/>
-      <c r="B73" s="71"/>
-      <c r="C73" s="71"/>
-      <c r="D73" s="62"/>
-      <c r="E73" s="62"/>
-      <c r="F73" s="62" t="str">
+      <c r="J72" s="58"/>
+      <c r="K72" s="42"/>
+    </row>
+    <row r="73" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="66"/>
+      <c r="B73" s="66"/>
+      <c r="C73" s="66"/>
+      <c r="D73" s="58"/>
+      <c r="E73" s="58"/>
+      <c r="F73" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G73" s="62" t="str">
+      <c r="G73" s="58" t="str">
         <f>IF(F73&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H73" s="62" t="str">
+      <c r="H73" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I73" s="62" t="str">
+      <c r="I73" s="58" t="str">
         <f>IF(OR(B73&lt;&gt;"",J73&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J73" s="62"/>
-      <c r="K73" s="45"/>
-    </row>
-    <row r="74" spans="1:11" s="59" customFormat="1">
-      <c r="A74" s="71"/>
-      <c r="B74" s="71"/>
-      <c r="C74" s="71"/>
-      <c r="D74" s="62"/>
-      <c r="E74" s="62"/>
-      <c r="F74" s="62" t="str">
+      <c r="J73" s="58"/>
+      <c r="K73" s="42"/>
+    </row>
+    <row r="74" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="66"/>
+      <c r="B74" s="66"/>
+      <c r="C74" s="66"/>
+      <c r="D74" s="58"/>
+      <c r="E74" s="58"/>
+      <c r="F74" s="58" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G74" s="62" t="str">
+      <c r="G74" s="58" t="str">
         <f>IF(F74&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H74" s="62" t="str">
+      <c r="H74" s="58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I74" s="62" t="str">
+      <c r="I74" s="58" t="str">
         <f>IF(OR(B74&lt;&gt;"",J74&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J74" s="62"/>
-      <c r="K74" s="45"/>
-    </row>
-    <row r="75" spans="1:11" s="59" customFormat="1">
-      <c r="A75" s="71"/>
-      <c r="B75" s="71"/>
-      <c r="C75" s="71"/>
-      <c r="D75" s="62"/>
-      <c r="E75" s="62"/>
-      <c r="F75" s="62" t="str">
+      <c r="J74" s="58"/>
+      <c r="K74" s="42"/>
+    </row>
+    <row r="75" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="66"/>
+      <c r="B75" s="66"/>
+      <c r="C75" s="66"/>
+      <c r="D75" s="58"/>
+      <c r="E75" s="58"/>
+      <c r="F75" s="58" t="str">
         <f t="shared" ref="F75:F108" si="4">IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I75="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v/>
       </c>
-      <c r="G75" s="62" t="str">
+      <c r="G75" s="58" t="str">
         <f>IF(F75&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H75" s="62" t="str">
+      <c r="H75" s="58" t="str">
         <f t="shared" ref="H75:H108" si="5">IF(AND(I75&lt;&gt;"",I75&lt;&gt;0),IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v/>
       </c>
-      <c r="I75" s="62" t="str">
+      <c r="I75" s="58" t="str">
         <f>IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J75" s="62"/>
-      <c r="K75" s="45"/>
-    </row>
-    <row r="76" spans="1:11" s="59" customFormat="1">
-      <c r="A76" s="71"/>
-      <c r="B76" s="71"/>
-      <c r="C76" s="71"/>
-      <c r="D76" s="62"/>
-      <c r="E76" s="62"/>
-      <c r="F76" s="62" t="str">
+      <c r="J75" s="58"/>
+      <c r="K75" s="42"/>
+    </row>
+    <row r="76" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="66"/>
+      <c r="B76" s="66"/>
+      <c r="C76" s="66"/>
+      <c r="D76" s="58"/>
+      <c r="E76" s="58"/>
+      <c r="F76" s="58" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G76" s="62" t="str">
+      <c r="G76" s="58" t="str">
         <f>IF(F76&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H76" s="62" t="str">
+      <c r="H76" s="58" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I76" s="62" t="str">
+      <c r="I76" s="58" t="str">
         <f>IF(OR(B76&lt;&gt;"",J76&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J76" s="62"/>
-      <c r="K76" s="45"/>
-    </row>
-    <row r="77" spans="1:11" s="59" customFormat="1">
-      <c r="A77" s="71"/>
-      <c r="B77" s="71"/>
-      <c r="C77" s="71"/>
-      <c r="D77" s="62"/>
-      <c r="E77" s="62"/>
-      <c r="F77" s="62" t="str">
+      <c r="J76" s="58"/>
+      <c r="K76" s="42"/>
+    </row>
+    <row r="77" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="66"/>
+      <c r="B77" s="66"/>
+      <c r="C77" s="66"/>
+      <c r="D77" s="58"/>
+      <c r="E77" s="58"/>
+      <c r="F77" s="58" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G77" s="62" t="str">
+      <c r="G77" s="58" t="str">
         <f>IF(F77&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H77" s="62" t="str">
+      <c r="H77" s="58" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I77" s="62" t="str">
+      <c r="I77" s="58" t="str">
         <f>IF(OR(B77&lt;&gt;"",J77&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J77" s="62"/>
-      <c r="K77" s="45"/>
-    </row>
-    <row r="78" spans="1:11" s="59" customFormat="1">
-      <c r="A78" s="71"/>
-      <c r="B78" s="71"/>
-      <c r="C78" s="71"/>
-      <c r="D78" s="62"/>
-      <c r="E78" s="62"/>
-      <c r="F78" s="62" t="str">
+      <c r="J77" s="58"/>
+      <c r="K77" s="42"/>
+    </row>
+    <row r="78" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="66"/>
+      <c r="B78" s="66"/>
+      <c r="C78" s="66"/>
+      <c r="D78" s="58"/>
+      <c r="E78" s="58"/>
+      <c r="F78" s="58" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G78" s="62" t="str">
+      <c r="G78" s="58" t="str">
         <f>IF(F78&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H78" s="62" t="str">
+      <c r="H78" s="58" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I78" s="62" t="str">
+      <c r="I78" s="58" t="str">
         <f>IF(OR(B78&lt;&gt;"",J78&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J78" s="62"/>
-      <c r="K78" s="45"/>
-    </row>
-    <row r="79" spans="1:11" s="59" customFormat="1">
-      <c r="A79" s="71"/>
-      <c r="B79" s="71"/>
-      <c r="C79" s="71"/>
-      <c r="D79" s="62"/>
-      <c r="E79" s="62"/>
-      <c r="F79" s="62" t="str">
+      <c r="J78" s="58"/>
+      <c r="K78" s="42"/>
+    </row>
+    <row r="79" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="66"/>
+      <c r="B79" s="66"/>
+      <c r="C79" s="66"/>
+      <c r="D79" s="58"/>
+      <c r="E79" s="58"/>
+      <c r="F79" s="58" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G79" s="62" t="str">
+      <c r="G79" s="58" t="str">
         <f>IF(F79&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H79" s="62" t="str">
+      <c r="H79" s="58" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I79" s="62" t="str">
+      <c r="I79" s="58" t="str">
         <f>IF(OR(B79&lt;&gt;"",J79&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J79" s="62"/>
-      <c r="K79" s="45"/>
-    </row>
-    <row r="80" spans="1:11" s="59" customFormat="1">
-      <c r="A80" s="71"/>
-      <c r="B80" s="71"/>
-      <c r="C80" s="71"/>
-      <c r="D80" s="62"/>
-      <c r="E80" s="62"/>
-      <c r="F80" s="62" t="str">
+      <c r="J79" s="58"/>
+      <c r="K79" s="42"/>
+    </row>
+    <row r="80" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="66"/>
+      <c r="B80" s="66"/>
+      <c r="C80" s="66"/>
+      <c r="D80" s="58"/>
+      <c r="E80" s="58"/>
+      <c r="F80" s="58" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G80" s="62" t="str">
+      <c r="G80" s="58" t="str">
         <f>IF(F80&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H80" s="62" t="str">
+      <c r="H80" s="58" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I80" s="62" t="str">
+      <c r="I80" s="58" t="str">
         <f>IF(OR(B80&lt;&gt;"",J80&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J80" s="62"/>
-      <c r="K80" s="45"/>
-    </row>
-    <row r="81" spans="1:11" s="59" customFormat="1">
-      <c r="A81" s="71"/>
-      <c r="B81" s="71"/>
-      <c r="C81" s="71"/>
-      <c r="D81" s="62"/>
-      <c r="E81" s="62"/>
-      <c r="F81" s="62" t="str">
+      <c r="J80" s="58"/>
+      <c r="K80" s="42"/>
+    </row>
+    <row r="81" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="66"/>
+      <c r="B81" s="66"/>
+      <c r="C81" s="66"/>
+      <c r="D81" s="58"/>
+      <c r="E81" s="58"/>
+      <c r="F81" s="58" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G81" s="62" t="str">
+      <c r="G81" s="58" t="str">
         <f>IF(F81&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H81" s="62" t="str">
+      <c r="H81" s="58" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I81" s="62" t="str">
+      <c r="I81" s="58" t="str">
         <f>IF(OR(B81&lt;&gt;"",J81&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J81" s="62"/>
-      <c r="K81" s="45"/>
-    </row>
-    <row r="82" spans="1:11" s="59" customFormat="1">
-      <c r="A82" s="71"/>
-      <c r="B82" s="71"/>
-      <c r="C82" s="71"/>
-      <c r="D82" s="62"/>
-      <c r="E82" s="62"/>
-      <c r="F82" s="62" t="str">
+      <c r="J81" s="58"/>
+      <c r="K81" s="42"/>
+    </row>
+    <row r="82" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="66"/>
+      <c r="B82" s="66"/>
+      <c r="C82" s="66"/>
+      <c r="D82" s="58"/>
+      <c r="E82" s="58"/>
+      <c r="F82" s="58" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G82" s="62" t="str">
+      <c r="G82" s="58" t="str">
         <f>IF(F82&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H82" s="62" t="str">
+      <c r="H82" s="58" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I82" s="62" t="str">
+      <c r="I82" s="58" t="str">
         <f>IF(OR(B82&lt;&gt;"",J82&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J82" s="62"/>
-      <c r="K82" s="45"/>
-    </row>
-    <row r="83" spans="1:11" s="59" customFormat="1">
-      <c r="A83" s="71"/>
-      <c r="B83" s="71"/>
-      <c r="C83" s="71"/>
-      <c r="D83" s="62"/>
-      <c r="E83" s="62"/>
-      <c r="F83" s="62" t="str">
+      <c r="J82" s="58"/>
+      <c r="K82" s="42"/>
+    </row>
+    <row r="83" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="66"/>
+      <c r="B83" s="66"/>
+      <c r="C83" s="66"/>
+      <c r="D83" s="58"/>
+      <c r="E83" s="58"/>
+      <c r="F83" s="58" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G83" s="62" t="str">
+      <c r="G83" s="58" t="str">
         <f>IF(F83&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H83" s="62" t="str">
+      <c r="H83" s="58" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I83" s="62" t="str">
+      <c r="I83" s="58" t="str">
         <f>IF(OR(B83&lt;&gt;"",J83&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J83" s="62"/>
-      <c r="K83" s="45"/>
-    </row>
-    <row r="84" spans="1:11" s="59" customFormat="1">
-      <c r="A84" s="71"/>
-      <c r="B84" s="71"/>
-      <c r="C84" s="71"/>
-      <c r="D84" s="62"/>
-      <c r="E84" s="62"/>
-      <c r="F84" s="62" t="str">
+      <c r="J83" s="58"/>
+      <c r="K83" s="42"/>
+    </row>
+    <row r="84" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="66"/>
+      <c r="B84" s="66"/>
+      <c r="C84" s="66"/>
+      <c r="D84" s="58"/>
+      <c r="E84" s="58"/>
+      <c r="F84" s="58" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G84" s="62" t="str">
+      <c r="G84" s="58" t="str">
         <f>IF(F84&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H84" s="62" t="str">
+      <c r="H84" s="58" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I84" s="62" t="str">
+      <c r="I84" s="58" t="str">
         <f>IF(OR(B84&lt;&gt;"",J84&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J84" s="62"/>
-      <c r="K84" s="45"/>
-    </row>
-    <row r="85" spans="1:11" s="59" customFormat="1">
-      <c r="A85" s="71"/>
-      <c r="B85" s="71"/>
-      <c r="C85" s="71"/>
-      <c r="D85" s="62"/>
-      <c r="E85" s="62"/>
-      <c r="F85" s="62" t="str">
+      <c r="J84" s="58"/>
+      <c r="K84" s="42"/>
+    </row>
+    <row r="85" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="66"/>
+      <c r="B85" s="66"/>
+      <c r="C85" s="66"/>
+      <c r="D85" s="58"/>
+      <c r="E85" s="58"/>
+      <c r="F85" s="58" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G85" s="62" t="str">
+      <c r="G85" s="58" t="str">
         <f>IF(F85&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H85" s="62" t="str">
+      <c r="H85" s="58" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I85" s="62" t="str">
+      <c r="I85" s="58" t="str">
         <f>IF(OR(B85&lt;&gt;"",J85&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J85" s="62"/>
-      <c r="K85" s="45"/>
-    </row>
-    <row r="86" spans="1:11" s="59" customFormat="1">
-      <c r="A86" s="71"/>
-      <c r="B86" s="71"/>
-      <c r="C86" s="71"/>
-      <c r="D86" s="62"/>
-      <c r="E86" s="62"/>
-      <c r="F86" s="62" t="str">
+      <c r="J85" s="58"/>
+      <c r="K85" s="42"/>
+    </row>
+    <row r="86" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="66"/>
+      <c r="B86" s="66"/>
+      <c r="C86" s="66"/>
+      <c r="D86" s="58"/>
+      <c r="E86" s="58"/>
+      <c r="F86" s="58" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G86" s="62" t="str">
+      <c r="G86" s="58" t="str">
         <f>IF(F86&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H86" s="62" t="str">
+      <c r="H86" s="58" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I86" s="62" t="str">
+      <c r="I86" s="58" t="str">
         <f>IF(OR(B86&lt;&gt;"",J86&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J86" s="62"/>
-      <c r="K86" s="45"/>
-    </row>
-    <row r="87" spans="1:11" s="59" customFormat="1">
-      <c r="A87" s="71"/>
-      <c r="B87" s="71"/>
-      <c r="C87" s="71"/>
-      <c r="D87" s="62"/>
-      <c r="E87" s="62"/>
-      <c r="F87" s="62" t="str">
+      <c r="J86" s="58"/>
+      <c r="K86" s="42"/>
+    </row>
+    <row r="87" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="66"/>
+      <c r="B87" s="66"/>
+      <c r="C87" s="66"/>
+      <c r="D87" s="58"/>
+      <c r="E87" s="58"/>
+      <c r="F87" s="58" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G87" s="62" t="str">
+      <c r="G87" s="58" t="str">
         <f>IF(F87&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H87" s="62" t="str">
+      <c r="H87" s="58" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I87" s="62" t="str">
+      <c r="I87" s="58" t="str">
         <f>IF(OR(B87&lt;&gt;"",J87&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J87" s="62"/>
-      <c r="K87" s="45"/>
-    </row>
-    <row r="88" spans="1:11" s="59" customFormat="1">
-      <c r="A88" s="71"/>
-      <c r="B88" s="71"/>
-      <c r="C88" s="71"/>
-      <c r="D88" s="62"/>
-      <c r="E88" s="62"/>
-      <c r="F88" s="62" t="str">
+      <c r="J87" s="58"/>
+      <c r="K87" s="42"/>
+    </row>
+    <row r="88" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="66"/>
+      <c r="B88" s="66"/>
+      <c r="C88" s="66"/>
+      <c r="D88" s="58"/>
+      <c r="E88" s="58"/>
+      <c r="F88" s="58" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G88" s="62" t="str">
+      <c r="G88" s="58" t="str">
         <f>IF(F88&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H88" s="62" t="str">
+      <c r="H88" s="58" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I88" s="62" t="str">
+      <c r="I88" s="58" t="str">
         <f>IF(OR(B88&lt;&gt;"",J88&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J88" s="62"/>
-      <c r="K88" s="45"/>
-    </row>
-    <row r="89" spans="1:11" s="59" customFormat="1">
-      <c r="A89" s="71"/>
-      <c r="B89" s="71"/>
-      <c r="C89" s="71"/>
-      <c r="D89" s="62"/>
-      <c r="E89" s="62"/>
-      <c r="F89" s="62" t="str">
+      <c r="J88" s="58"/>
+      <c r="K88" s="42"/>
+    </row>
+    <row r="89" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="66"/>
+      <c r="B89" s="66"/>
+      <c r="C89" s="66"/>
+      <c r="D89" s="58"/>
+      <c r="E89" s="58"/>
+      <c r="F89" s="58" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G89" s="62" t="str">
+      <c r="G89" s="58" t="str">
         <f>IF(F89&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H89" s="62" t="str">
+      <c r="H89" s="58" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I89" s="62" t="str">
+      <c r="I89" s="58" t="str">
         <f>IF(OR(B89&lt;&gt;"",J89&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J89" s="62"/>
-      <c r="K89" s="45"/>
-    </row>
-    <row r="90" spans="1:11" s="59" customFormat="1">
-      <c r="A90" s="71"/>
-      <c r="B90" s="71"/>
-      <c r="C90" s="71"/>
-      <c r="D90" s="62"/>
-      <c r="E90" s="62"/>
-      <c r="F90" s="62" t="str">
+      <c r="J89" s="58"/>
+      <c r="K89" s="42"/>
+    </row>
+    <row r="90" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="66"/>
+      <c r="B90" s="66"/>
+      <c r="C90" s="66"/>
+      <c r="D90" s="58"/>
+      <c r="E90" s="58"/>
+      <c r="F90" s="58" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G90" s="62" t="str">
+      <c r="G90" s="58" t="str">
         <f>IF(F90&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H90" s="62" t="str">
+      <c r="H90" s="58" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I90" s="62" t="str">
+      <c r="I90" s="58" t="str">
         <f>IF(OR(B90&lt;&gt;"",J90&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J90" s="62"/>
-      <c r="K90" s="45"/>
-    </row>
-    <row r="91" spans="1:11" s="59" customFormat="1">
-      <c r="A91" s="71"/>
-      <c r="B91" s="71"/>
-      <c r="C91" s="71"/>
-      <c r="D91" s="62"/>
-      <c r="E91" s="62"/>
-      <c r="F91" s="62" t="str">
+      <c r="J90" s="58"/>
+      <c r="K90" s="42"/>
+    </row>
+    <row r="91" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="66"/>
+      <c r="B91" s="66"/>
+      <c r="C91" s="66"/>
+      <c r="D91" s="58"/>
+      <c r="E91" s="58"/>
+      <c r="F91" s="58" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G91" s="62" t="str">
+      <c r="G91" s="58" t="str">
         <f>IF(F91&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H91" s="62" t="str">
+      <c r="H91" s="58" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I91" s="62" t="str">
+      <c r="I91" s="58" t="str">
         <f>IF(OR(B91&lt;&gt;"",J91&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J91" s="62"/>
-      <c r="K91" s="45"/>
-    </row>
-    <row r="92" spans="1:11" s="59" customFormat="1">
-      <c r="A92" s="71"/>
-      <c r="B92" s="71"/>
-      <c r="C92" s="71"/>
-      <c r="D92" s="62"/>
-      <c r="E92" s="62"/>
-      <c r="F92" s="62" t="str">
+      <c r="J91" s="58"/>
+      <c r="K91" s="42"/>
+    </row>
+    <row r="92" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="66"/>
+      <c r="B92" s="66"/>
+      <c r="C92" s="66"/>
+      <c r="D92" s="58"/>
+      <c r="E92" s="58"/>
+      <c r="F92" s="58" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G92" s="62" t="str">
+      <c r="G92" s="58" t="str">
         <f>IF(F92&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H92" s="62" t="str">
+      <c r="H92" s="58" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I92" s="62" t="str">
+      <c r="I92" s="58" t="str">
         <f>IF(OR(B92&lt;&gt;"",J92&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J92" s="62"/>
-      <c r="K92" s="45"/>
-    </row>
-    <row r="93" spans="1:11" s="59" customFormat="1">
-      <c r="A93" s="71"/>
-      <c r="B93" s="71"/>
-      <c r="C93" s="71"/>
-      <c r="D93" s="62"/>
-      <c r="E93" s="62"/>
-      <c r="F93" s="62" t="str">
+      <c r="J92" s="58"/>
+      <c r="K92" s="42"/>
+    </row>
+    <row r="93" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="66"/>
+      <c r="B93" s="66"/>
+      <c r="C93" s="66"/>
+      <c r="D93" s="58"/>
+      <c r="E93" s="58"/>
+      <c r="F93" s="58" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G93" s="62" t="str">
+      <c r="G93" s="58" t="str">
         <f>IF(F93&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H93" s="62" t="str">
+      <c r="H93" s="58" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I93" s="62" t="str">
+      <c r="I93" s="58" t="str">
         <f>IF(OR(B93&lt;&gt;"",J93&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J93" s="62"/>
-      <c r="K93" s="45"/>
-    </row>
-    <row r="94" spans="1:11" s="59" customFormat="1">
-      <c r="A94" s="71"/>
-      <c r="B94" s="71"/>
-      <c r="C94" s="71"/>
-      <c r="D94" s="62"/>
-      <c r="E94" s="62"/>
-      <c r="F94" s="62" t="str">
+      <c r="J93" s="58"/>
+      <c r="K93" s="42"/>
+    </row>
+    <row r="94" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="66"/>
+      <c r="B94" s="66"/>
+      <c r="C94" s="66"/>
+      <c r="D94" s="58"/>
+      <c r="E94" s="58"/>
+      <c r="F94" s="58" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G94" s="62" t="str">
+      <c r="G94" s="58" t="str">
         <f>IF(F94&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H94" s="62" t="str">
+      <c r="H94" s="58" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I94" s="62" t="str">
+      <c r="I94" s="58" t="str">
         <f>IF(OR(B94&lt;&gt;"",J94&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J94" s="62"/>
-      <c r="K94" s="45"/>
-    </row>
-    <row r="95" spans="1:11" s="59" customFormat="1">
-      <c r="A95" s="71"/>
-      <c r="B95" s="71"/>
-      <c r="C95" s="71"/>
-      <c r="D95" s="62"/>
-      <c r="E95" s="62"/>
-      <c r="F95" s="62" t="str">
+      <c r="J94" s="58"/>
+      <c r="K94" s="42"/>
+    </row>
+    <row r="95" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="66"/>
+      <c r="B95" s="66"/>
+      <c r="C95" s="66"/>
+      <c r="D95" s="58"/>
+      <c r="E95" s="58"/>
+      <c r="F95" s="58" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G95" s="62" t="str">
+      <c r="G95" s="58" t="str">
         <f>IF(F95&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H95" s="62" t="str">
+      <c r="H95" s="58" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I95" s="62" t="str">
+      <c r="I95" s="58" t="str">
         <f>IF(OR(B95&lt;&gt;"",J95&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J95" s="62"/>
-      <c r="K95" s="45"/>
-    </row>
-    <row r="96" spans="1:11" s="59" customFormat="1">
-      <c r="A96" s="71"/>
-      <c r="B96" s="71"/>
-      <c r="C96" s="71"/>
-      <c r="D96" s="62"/>
-      <c r="E96" s="62"/>
-      <c r="F96" s="62" t="str">
+      <c r="J95" s="58"/>
+      <c r="K95" s="42"/>
+    </row>
+    <row r="96" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="66"/>
+      <c r="B96" s="66"/>
+      <c r="C96" s="66"/>
+      <c r="D96" s="58"/>
+      <c r="E96" s="58"/>
+      <c r="F96" s="58" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G96" s="62" t="str">
+      <c r="G96" s="58" t="str">
         <f>IF(F96&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H96" s="62" t="str">
+      <c r="H96" s="58" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I96" s="62" t="str">
+      <c r="I96" s="58" t="str">
         <f>IF(OR(B96&lt;&gt;"",J96&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J96" s="62"/>
-      <c r="K96" s="45"/>
-    </row>
-    <row r="97" spans="1:11" s="59" customFormat="1">
-      <c r="A97" s="71"/>
-      <c r="B97" s="71"/>
-      <c r="C97" s="71"/>
-      <c r="D97" s="62"/>
-      <c r="E97" s="62"/>
-      <c r="F97" s="62" t="str">
+      <c r="J96" s="58"/>
+      <c r="K96" s="42"/>
+    </row>
+    <row r="97" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="66"/>
+      <c r="B97" s="66"/>
+      <c r="C97" s="66"/>
+      <c r="D97" s="58"/>
+      <c r="E97" s="58"/>
+      <c r="F97" s="58" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G97" s="62" t="str">
+      <c r="G97" s="58" t="str">
         <f>IF(F97&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H97" s="62" t="str">
+      <c r="H97" s="58" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I97" s="62" t="str">
+      <c r="I97" s="58" t="str">
         <f>IF(OR(B97&lt;&gt;"",J97&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J97" s="62"/>
-      <c r="K97" s="45"/>
-    </row>
-    <row r="98" spans="1:11" s="59" customFormat="1">
-      <c r="A98" s="71"/>
-      <c r="B98" s="71"/>
-      <c r="C98" s="71"/>
-      <c r="D98" s="62"/>
-      <c r="E98" s="62"/>
-      <c r="F98" s="62" t="str">
+      <c r="J97" s="58"/>
+      <c r="K97" s="42"/>
+    </row>
+    <row r="98" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="66"/>
+      <c r="B98" s="66"/>
+      <c r="C98" s="66"/>
+      <c r="D98" s="58"/>
+      <c r="E98" s="58"/>
+      <c r="F98" s="58" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G98" s="62" t="str">
+      <c r="G98" s="58" t="str">
         <f>IF(F98&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H98" s="62" t="str">
+      <c r="H98" s="58" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I98" s="62" t="str">
+      <c r="I98" s="58" t="str">
         <f>IF(OR(B98&lt;&gt;"",J98&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J98" s="62"/>
-      <c r="K98" s="45"/>
-    </row>
-    <row r="99" spans="1:11" s="59" customFormat="1">
-      <c r="A99" s="71"/>
-      <c r="B99" s="71"/>
-      <c r="C99" s="71"/>
-      <c r="D99" s="62"/>
-      <c r="E99" s="62"/>
-      <c r="F99" s="62" t="str">
+      <c r="J98" s="58"/>
+      <c r="K98" s="42"/>
+    </row>
+    <row r="99" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="66"/>
+      <c r="B99" s="66"/>
+      <c r="C99" s="66"/>
+      <c r="D99" s="58"/>
+      <c r="E99" s="58"/>
+      <c r="F99" s="58" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G99" s="62" t="str">
+      <c r="G99" s="58" t="str">
         <f>IF(F99&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H99" s="62" t="str">
+      <c r="H99" s="58" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I99" s="62" t="str">
+      <c r="I99" s="58" t="str">
         <f>IF(OR(B99&lt;&gt;"",J99&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J99" s="62"/>
-      <c r="K99" s="45"/>
-    </row>
-    <row r="100" spans="1:11" s="59" customFormat="1">
-      <c r="A100" s="71"/>
-      <c r="B100" s="71"/>
-      <c r="C100" s="71"/>
-      <c r="D100" s="62"/>
-      <c r="E100" s="62"/>
-      <c r="F100" s="62" t="str">
+      <c r="J99" s="58"/>
+      <c r="K99" s="42"/>
+    </row>
+    <row r="100" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="66"/>
+      <c r="B100" s="66"/>
+      <c r="C100" s="66"/>
+      <c r="D100" s="58"/>
+      <c r="E100" s="58"/>
+      <c r="F100" s="58" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G100" s="62" t="str">
+      <c r="G100" s="58" t="str">
         <f>IF(F100&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H100" s="62" t="str">
+      <c r="H100" s="58" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I100" s="62" t="str">
+      <c r="I100" s="58" t="str">
         <f>IF(OR(B100&lt;&gt;"",J100&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J100" s="62"/>
-      <c r="K100" s="45"/>
-    </row>
-    <row r="101" spans="1:11" s="59" customFormat="1">
-      <c r="A101" s="71"/>
-      <c r="B101" s="71"/>
-      <c r="C101" s="71"/>
-      <c r="D101" s="62"/>
-      <c r="E101" s="62"/>
-      <c r="F101" s="62" t="str">
+      <c r="J100" s="58"/>
+      <c r="K100" s="42"/>
+    </row>
+    <row r="101" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="66"/>
+      <c r="B101" s="66"/>
+      <c r="C101" s="66"/>
+      <c r="D101" s="58"/>
+      <c r="E101" s="58"/>
+      <c r="F101" s="58" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G101" s="62" t="str">
+      <c r="G101" s="58" t="str">
         <f>IF(F101&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H101" s="62" t="str">
+      <c r="H101" s="58" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I101" s="62" t="str">
+      <c r="I101" s="58" t="str">
         <f>IF(OR(B101&lt;&gt;"",J101&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J101" s="62"/>
-      <c r="K101" s="45"/>
-    </row>
-    <row r="102" spans="1:11" s="59" customFormat="1">
-      <c r="A102" s="71"/>
-      <c r="B102" s="71"/>
-      <c r="C102" s="71"/>
-      <c r="D102" s="62"/>
-      <c r="E102" s="62"/>
-      <c r="F102" s="62" t="str">
+      <c r="J101" s="58"/>
+      <c r="K101" s="42"/>
+    </row>
+    <row r="102" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="66"/>
+      <c r="B102" s="66"/>
+      <c r="C102" s="66"/>
+      <c r="D102" s="58"/>
+      <c r="E102" s="58"/>
+      <c r="F102" s="58" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G102" s="62" t="str">
+      <c r="G102" s="58" t="str">
         <f>IF(F102&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H102" s="62" t="str">
+      <c r="H102" s="58" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I102" s="62" t="str">
+      <c r="I102" s="58" t="str">
         <f>IF(OR(B102&lt;&gt;"",J102&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J102" s="62"/>
-      <c r="K102" s="45"/>
-    </row>
-    <row r="103" spans="1:11" s="59" customFormat="1">
-      <c r="A103" s="71"/>
-      <c r="B103" s="71"/>
-      <c r="C103" s="71"/>
-      <c r="D103" s="62"/>
-      <c r="E103" s="62"/>
-      <c r="F103" s="62" t="str">
+      <c r="J102" s="58"/>
+      <c r="K102" s="42"/>
+    </row>
+    <row r="103" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="66"/>
+      <c r="B103" s="66"/>
+      <c r="C103" s="66"/>
+      <c r="D103" s="58"/>
+      <c r="E103" s="58"/>
+      <c r="F103" s="58" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G103" s="62" t="str">
+      <c r="G103" s="58" t="str">
         <f>IF(F103&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H103" s="62" t="str">
+      <c r="H103" s="58" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I103" s="62" t="str">
+      <c r="I103" s="58" t="str">
         <f>IF(OR(B103&lt;&gt;"",J103&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J103" s="62"/>
-      <c r="K103" s="45"/>
-    </row>
-    <row r="104" spans="1:11" s="59" customFormat="1">
-      <c r="A104" s="71"/>
-      <c r="B104" s="71"/>
-      <c r="C104" s="71"/>
-      <c r="D104" s="62"/>
-      <c r="E104" s="62"/>
-      <c r="F104" s="62" t="str">
+      <c r="J103" s="58"/>
+      <c r="K103" s="42"/>
+    </row>
+    <row r="104" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="66"/>
+      <c r="B104" s="66"/>
+      <c r="C104" s="66"/>
+      <c r="D104" s="58"/>
+      <c r="E104" s="58"/>
+      <c r="F104" s="58" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G104" s="62" t="str">
+      <c r="G104" s="58" t="str">
         <f>IF(F104&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H104" s="62" t="str">
+      <c r="H104" s="58" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I104" s="62" t="str">
+      <c r="I104" s="58" t="str">
         <f>IF(OR(B104&lt;&gt;"",J104&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J104" s="62"/>
-      <c r="K104" s="45"/>
-    </row>
-    <row r="105" spans="1:11" s="59" customFormat="1">
-      <c r="A105" s="71"/>
-      <c r="B105" s="71"/>
-      <c r="C105" s="71"/>
-      <c r="D105" s="62"/>
-      <c r="E105" s="62"/>
-      <c r="F105" s="62" t="str">
+      <c r="J104" s="58"/>
+      <c r="K104" s="42"/>
+    </row>
+    <row r="105" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="66"/>
+      <c r="B105" s="66"/>
+      <c r="C105" s="66"/>
+      <c r="D105" s="58"/>
+      <c r="E105" s="58"/>
+      <c r="F105" s="58" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G105" s="62" t="str">
+      <c r="G105" s="58" t="str">
         <f>IF(F105&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H105" s="62" t="str">
+      <c r="H105" s="58" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I105" s="62" t="str">
+      <c r="I105" s="58" t="str">
         <f>IF(OR(B105&lt;&gt;"",J105&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J105" s="62"/>
-      <c r="K105" s="45"/>
-    </row>
-    <row r="106" spans="1:11" s="59" customFormat="1">
-      <c r="A106" s="71"/>
-      <c r="B106" s="71"/>
-      <c r="C106" s="71"/>
-      <c r="D106" s="62"/>
-      <c r="E106" s="62"/>
-      <c r="F106" s="62" t="str">
+      <c r="J105" s="58"/>
+      <c r="K105" s="42"/>
+    </row>
+    <row r="106" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="66"/>
+      <c r="B106" s="66"/>
+      <c r="C106" s="66"/>
+      <c r="D106" s="58"/>
+      <c r="E106" s="58"/>
+      <c r="F106" s="58" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G106" s="62" t="str">
+      <c r="G106" s="58" t="str">
         <f>IF(F106&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H106" s="62" t="str">
+      <c r="H106" s="58" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I106" s="62" t="str">
+      <c r="I106" s="58" t="str">
         <f>IF(OR(B106&lt;&gt;"",J106&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J106" s="62"/>
-      <c r="K106" s="45"/>
-    </row>
-    <row r="107" spans="1:11" s="59" customFormat="1">
-      <c r="A107" s="71"/>
-      <c r="B107" s="71"/>
-      <c r="C107" s="71"/>
-      <c r="D107" s="62"/>
-      <c r="E107" s="62"/>
-      <c r="F107" s="62" t="str">
+      <c r="J106" s="58"/>
+      <c r="K106" s="42"/>
+    </row>
+    <row r="107" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="66"/>
+      <c r="B107" s="66"/>
+      <c r="C107" s="66"/>
+      <c r="D107" s="58"/>
+      <c r="E107" s="58"/>
+      <c r="F107" s="58" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G107" s="62" t="str">
+      <c r="G107" s="58" t="str">
         <f>IF(F107&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H107" s="62" t="str">
+      <c r="H107" s="58" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I107" s="62" t="str">
+      <c r="I107" s="58" t="str">
         <f>IF(OR(B107&lt;&gt;"",J107&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J107" s="62"/>
-      <c r="K107" s="45"/>
-    </row>
-    <row r="108" spans="1:11" s="59" customFormat="1">
-      <c r="A108" s="71"/>
-      <c r="B108" s="71"/>
-      <c r="C108" s="71"/>
-      <c r="D108" s="62"/>
-      <c r="E108" s="62"/>
-      <c r="F108" s="62" t="str">
+      <c r="J107" s="58"/>
+      <c r="K107" s="42"/>
+    </row>
+    <row r="108" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="66"/>
+      <c r="B108" s="66"/>
+      <c r="C108" s="66"/>
+      <c r="D108" s="58"/>
+      <c r="E108" s="58"/>
+      <c r="F108" s="58" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G108" s="62" t="str">
+      <c r="G108" s="58" t="str">
         <f>IF(F108&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v/>
       </c>
-      <c r="H108" s="62" t="str">
+      <c r="H108" s="58" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I108" s="62" t="str">
+      <c r="I108" s="58" t="str">
         <f>IF(OR(B108&lt;&gt;"",J108&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J108" s="62"/>
-      <c r="K108" s="45"/>
+      <c r="J108" s="58"/>
+      <c r="K108" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4880,7 +5444,85 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="PBrush" shapeId="2060" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>419100</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>5067300</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>1752600</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="PBrush" shapeId="2060" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="PBrush" shapeId="2061" r:id="rId6">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>5314950</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>9963150</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>1790700</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="PBrush" shapeId="2061" r:id="rId6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="PBrush" shapeId="2062" r:id="rId8">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId9">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>2924175</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>1885950</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>7553325</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>4419600</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="PBrush" shapeId="2062" r:id="rId8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4890,7 +5532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:K45"/>
   <sheetViews>
@@ -4898,541 +5540,541 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.19921875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="11" style="9"/>
-    <col min="3" max="3" width="13.796875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="11.296875" style="9" customWidth="1"/>
-    <col min="5" max="7" width="11" style="9"/>
-    <col min="8" max="11" width="11" style="9" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="11" style="9"/>
+    <col min="1" max="1" width="72.25" style="7" customWidth="1"/>
+    <col min="2" max="2" width="11" style="7"/>
+    <col min="3" max="3" width="13.75" style="7" customWidth="1"/>
+    <col min="4" max="4" width="11.25" style="7" customWidth="1"/>
+    <col min="5" max="7" width="11" style="7"/>
+    <col min="8" max="11" width="11" style="7" hidden="1" customWidth="1"/>
+    <col min="12" max="16384" width="11" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.2" thickBot="1">
-      <c r="A1" s="96" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="98"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="15" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="99" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="100"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="17"/>
-    </row>
-    <row r="3" spans="1:11" ht="62.4">
-      <c r="A3" s="18" t="s">
+      <c r="D2" s="95"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="105" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="106"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="17"/>
-      <c r="H3" s="9" t="s">
+      <c r="D3" s="101"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="15"/>
+      <c r="H3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="31.2">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="H4" s="9" t="s">
+      <c r="F4" s="15"/>
+      <c r="H4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="7">
         <v>1</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="78.599999999999994" thickBot="1">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="108" t="str">
+      <c r="D5" s="103" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="109"/>
-      <c r="F5" s="17"/>
-      <c r="H5" s="9" t="s">
+      <c r="E5" s="104"/>
+      <c r="F5" s="15"/>
+      <c r="H5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="7">
         <v>2</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="31.8" thickBot="1">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17"/>
-      <c r="H6" s="9" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+      <c r="H6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="7">
         <v>3</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="47.4" thickBot="1">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:11" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="44" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="94" t="str">
+      <c r="D7" s="89" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="94"/>
-      <c r="F7" s="95"/>
-      <c r="H7" s="9" t="s">
+      <c r="E7" s="89"/>
+      <c r="F7" s="90"/>
+      <c r="H7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="7">
         <v>4</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="46.8">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
-      <c r="I8" s="9" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
+      <c r="I8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="7">
         <v>5</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="46.8">
-      <c r="A9" s="18" t="s">
+    <row r="9" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
-      <c r="I9" s="9" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="I9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="7">
         <v>6</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="31.8" thickBot="1">
-      <c r="A10" s="19" t="s">
+    <row r="10" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="21"/>
-      <c r="I10" s="9" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
+      <c r="I10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="7">
         <v>7</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="7">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="I11" s="9" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="7">
         <v>8</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.2" thickBot="1">
-      <c r="I12" s="9" t="s">
+    <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="7">
         <v>9</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="96" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="97"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="98"/>
-      <c r="I13" s="9" t="s">
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="93"/>
+      <c r="I13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="7">
         <v>10</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.2" thickBot="1">
-      <c r="A14" s="18"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17"/>
-      <c r="I14" s="9" t="s">
+    <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
+      <c r="I14" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="7">
         <v>11</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="7">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="15" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="99" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="101"/>
-      <c r="J15" s="9">
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="96"/>
+      <c r="J15" s="7">
         <v>12</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="7">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="67.05" customHeight="1">
-      <c r="A16" s="18" t="s">
+    <row r="16" spans="1:11" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="11" t="s">
+      <c r="B16" s="14"/>
+      <c r="C16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="7">
         <v>13</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="7">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="32.1" customHeight="1" thickBot="1">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:11" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="13" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="102" t="str">
+      <c r="D17" s="97" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="103"/>
-      <c r="F17" s="104"/>
-      <c r="J17" s="9">
+      <c r="E17" s="98"/>
+      <c r="F17" s="99"/>
+      <c r="J17" s="7">
         <v>14</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="7">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="78.599999999999994" thickBot="1">
-      <c r="A18" s="18" t="s">
+    <row r="18" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="44" t="s">
+      <c r="B18" s="14"/>
+      <c r="C18" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="94" t="str">
+      <c r="D18" s="89" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="94"/>
-      <c r="F18" s="95"/>
-      <c r="J18" s="9">
+      <c r="E18" s="89"/>
+      <c r="F18" s="90"/>
+      <c r="J18" s="7">
         <v>15</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="7">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="15" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="17"/>
-      <c r="H19" s="9">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15"/>
+      <c r="H19" s="7">
         <v>3</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="7">
         <v>16</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="7">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="63" thickBot="1">
-      <c r="A20" s="19" t="s">
+    <row r="20" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="21"/>
-      <c r="H20" s="9">
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="19"/>
+      <c r="H20" s="7">
         <v>4</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="7">
         <v>5</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="7">
         <v>4</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K20" s="7">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
-      <c r="H21" s="9" t="str">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H21" s="7" t="str">
         <f>IF(INDEX(H4:H7,H20)=H4,"MA",IF(INDEX(H4:H7,H20)=H5,"CN",IF(INDEX(H4:H7,H20)=H6,"CS",IF(INDEX(H4:H7,H20)=H7,"LE"))))</f>
         <v>LE</v>
       </c>
-      <c r="I21" s="9" t="str">
+      <c r="I21" s="7" t="str">
         <f>CONCATENATE(IF((I20+2)&lt;10,"0",""),I20+2)</f>
         <v>07</v>
       </c>
-      <c r="J21" s="9" t="str">
+      <c r="J21" s="7" t="str">
         <f>CONCATENATE(IF(J20&lt;10,"0",""),J20)</f>
         <v>04</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="7">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
-      <c r="K22" s="9">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K22" s="7">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
-      <c r="K23" s="9">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K23" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
-      <c r="K24" s="9">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K24" s="7">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
-      <c r="K25" s="9">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K25" s="7">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
-      <c r="K26" s="9">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K26" s="7">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
-      <c r="K27" s="9">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K27" s="7">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
-      <c r="K28" s="9">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K28" s="7">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
-      <c r="K29" s="9">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K29" s="7">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
-      <c r="K30" s="9">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K30" s="7">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
-      <c r="K31" s="9">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K31" s="7">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
-      <c r="K32" s="9">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K32" s="7">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="11:11">
-      <c r="K33" s="9">
+    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K33" s="7">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="11:11">
-      <c r="K34" s="9">
+    <row r="34" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K34" s="7">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="11:11">
-      <c r="K35" s="9">
+    <row r="35" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K35" s="7">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="11:11">
-      <c r="K36" s="9">
+    <row r="36" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K36" s="7">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="11:11">
-      <c r="K37" s="9">
+    <row r="37" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K37" s="7">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="11:11">
-      <c r="K38" s="9">
+    <row r="38" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K38" s="7">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="11:11">
-      <c r="K39" s="9">
+    <row r="39" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K39" s="7">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="11:11">
-      <c r="K40" s="9">
+    <row r="40" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K40" s="7">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="11:11">
-      <c r="K41" s="9">
+    <row r="41" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K41" s="7">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="11:11">
-      <c r="K42" s="9">
+    <row r="42" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K42" s="7">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="11:11">
-      <c r="K43" s="9">
+    <row r="43" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K43" s="7">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="11:11">
-      <c r="K44" s="9">
+    <row r="44" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K44" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="11:11">
-      <c r="K45" s="9" t="str">
+    <row r="45" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K45" s="7" t="str">
         <f>CONCATENATE("REC",K44,0)</f>
         <v>REC10</v>
       </c>
@@ -5451,12 +6093,173 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1030" r:id="rId4" name="Drop Down 6">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0" macro="[0]!Listadesplegable2_Cambiar">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>962025</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>2028825</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>1419225</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1031" r:id="rId5" name="Drop Down 7">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>2019300</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>962025</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>1657350</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>1419225</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1032" r:id="rId6" name="Drop Down 8">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>962025</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>1666875</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>1419225</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1035" r:id="rId7" name="Drop Down 11">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>962025</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>1666875</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>1419225</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1026" r:id="rId8" name="Drop Down 2">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0" macro="[0]!Listadesplegable2_Cambiar">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>2066925</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>466725</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1028" r:id="rId9" name="Drop Down 4">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>2085975</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>1724025</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>466725</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1029" r:id="rId10" name="Drop Down 5">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>466725</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
@@ -5464,564 +6267,564 @@
       <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" style="9" customWidth="1"/>
-    <col min="2" max="2" width="22.19921875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="17.296875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="10.796875" style="9"/>
-    <col min="5" max="5" width="11.69921875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="12.69921875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="11" style="9" customWidth="1"/>
-    <col min="8" max="8" width="24.5" style="9" customWidth="1"/>
-    <col min="9" max="9" width="22.19921875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="20.69921875" style="9" customWidth="1"/>
-    <col min="11" max="11" width="44.5" style="9" customWidth="1"/>
-    <col min="12" max="16384" width="10.796875" style="9"/>
+    <col min="1" max="1" width="21" style="7" customWidth="1"/>
+    <col min="2" max="2" width="22.25" style="7" customWidth="1"/>
+    <col min="3" max="3" width="17.25" style="7" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="7"/>
+    <col min="5" max="5" width="11.75" style="7" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="7" customWidth="1"/>
+    <col min="7" max="7" width="11" style="7" customWidth="1"/>
+    <col min="8" max="8" width="24.5" style="7" customWidth="1"/>
+    <col min="9" max="9" width="22.25" style="7" customWidth="1"/>
+    <col min="10" max="10" width="20.75" style="7" customWidth="1"/>
+    <col min="11" max="11" width="44.5" style="7" customWidth="1"/>
+    <col min="12" max="16384" width="10.75" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="110" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="105" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="110" t="s">
+      <c r="C1" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="110" t="s">
+      <c r="D1" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="110" t="s">
+      <c r="E1" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="110" t="s">
+      <c r="F1" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="110" t="s">
+      <c r="G1" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="111" t="s">
+      <c r="H1" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="23" t="s">
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="21" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="25" customFormat="1">
-      <c r="A3" s="24" t="s">
+    <row r="3" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-    </row>
-    <row r="4" spans="1:11" s="25" customFormat="1">
-      <c r="A4" s="26" t="s">
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+    </row>
+    <row r="4" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26" t="s">
+      <c r="G4" s="24"/>
+      <c r="H4" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="J4" s="26"/>
-    </row>
-    <row r="5" spans="1:11" s="25" customFormat="1">
-      <c r="A5" s="27" t="s">
+      <c r="J4" s="24"/>
+    </row>
+    <row r="5" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="26" t="s">
+      <c r="G5" s="26"/>
+      <c r="H5" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="J5" s="28"/>
-    </row>
-    <row r="6" spans="1:11" s="25" customFormat="1">
-      <c r="A6" s="26" t="s">
+      <c r="J5" s="26"/>
+    </row>
+    <row r="6" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="J6" s="26" t="s">
+      <c r="J6" s="24" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="25" customFormat="1" ht="27.6">
-      <c r="A7" s="26" t="s">
+    <row r="7" spans="1:11" s="23" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26" t="s">
+      <c r="G7" s="24"/>
+      <c r="H7" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="J7" s="26"/>
-    </row>
-    <row r="8" spans="1:11" s="25" customFormat="1" ht="27.6">
-      <c r="A8" s="26" t="s">
+      <c r="J7" s="24"/>
+    </row>
+    <row r="8" spans="1:11" s="23" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26" t="s">
+      <c r="G8" s="24"/>
+      <c r="H8" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="J8" s="26"/>
-    </row>
-    <row r="9" spans="1:11" s="25" customFormat="1">
-      <c r="A9" s="26" t="s">
+      <c r="J8" s="24"/>
+    </row>
+    <row r="9" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26" t="s">
+      <c r="G9" s="24"/>
+      <c r="H9" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="J9" s="26"/>
-    </row>
-    <row r="10" spans="1:11" s="25" customFormat="1">
-      <c r="A10" s="26" t="s">
+      <c r="J9" s="24"/>
+    </row>
+    <row r="10" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26" t="s">
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="J10" s="26"/>
-    </row>
-    <row r="11" spans="1:11" s="25" customFormat="1" ht="27.6">
-      <c r="A11" s="26" t="s">
+      <c r="J10" s="24"/>
+    </row>
+    <row r="11" spans="1:11" s="23" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26" t="s">
+      <c r="G11" s="24"/>
+      <c r="H11" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="I11" s="26" t="s">
+      <c r="I11" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="J11" s="26"/>
-    </row>
-    <row r="12" spans="1:11" s="25" customFormat="1">
-      <c r="A12" s="26" t="s">
+      <c r="J11" s="24"/>
+    </row>
+    <row r="12" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26" t="s">
+      <c r="G12" s="24"/>
+      <c r="H12" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="I12" s="26" t="s">
+      <c r="I12" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="J12" s="26"/>
-    </row>
-    <row r="13" spans="1:11" ht="62.4">
-      <c r="A13" s="29" t="s">
+      <c r="J12" s="24"/>
+    </row>
+    <row r="13" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="31" t="s">
+      <c r="E13" s="28"/>
+      <c r="F13" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="G13" s="29"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26" t="s">
+      <c r="G13" s="27"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="J13" s="29"/>
-      <c r="K13" s="9" t="s">
+      <c r="J13" s="27"/>
+      <c r="K13" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="29" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="31" t="s">
+      <c r="E14" s="28"/>
+      <c r="F14" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="G14" s="29"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26" t="s">
+      <c r="G14" s="27"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="29"/>
-    </row>
-    <row r="15" spans="1:11" ht="31.2">
-      <c r="A15" s="29" t="s">
+      <c r="J14" s="27"/>
+    </row>
+    <row r="15" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="26" t="s">
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="9" t="s">
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="93.6">
-      <c r="A16" s="31" t="s">
+    <row r="16" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="27" t="s">
+      <c r="B16" s="29"/>
+      <c r="C16" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="G16" s="30"/>
-      <c r="H16" s="31" t="s">
+      <c r="G16" s="28"/>
+      <c r="H16" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="I16" s="31" t="s">
+      <c r="I16" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="J16" s="30"/>
-      <c r="K16" s="32" t="s">
+      <c r="J16" s="28"/>
+      <c r="K16" s="30" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="27.6">
-      <c r="A17" s="26" t="s">
+    <row r="17" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26" t="s">
+      <c r="B17" s="24"/>
+      <c r="C17" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="G17" s="26"/>
-      <c r="H17" s="33" t="s">
+      <c r="G17" s="24"/>
+      <c r="H17" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="I17" s="33" t="s">
+      <c r="I17" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="J17" s="26"/>
-      <c r="K17" s="34" t="s">
+      <c r="J17" s="24"/>
+      <c r="K17" s="32" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="35" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="33" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="36" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="39" t="s">
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="39" t="s">
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-    </row>
-    <row r="24" spans="1:11" ht="31.2">
-      <c r="A24" s="39" t="s">
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+    </row>
+    <row r="24" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="39" t="s">
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="C25" s="41" t="s">
+      <c r="C25" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-    </row>
-    <row r="26" spans="1:11" ht="62.4">
-      <c r="A26" s="39" t="s">
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+    </row>
+    <row r="26" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+      <c r="A26" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="8">
